--- a/matrix/reviewed/iphone/connected device/connected_device.xlsx
+++ b/matrix/reviewed/iphone/connected device/connected_device.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24326"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D9D22926-047C-4FDA-AC09-47DEB2F8AFDE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{311111E4-127E-473B-8197-0DE301FE0E69}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="23">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="47" uniqueCount="24">
   <si>
     <t>Date</t>
   </si>
@@ -89,6 +89,9 @@
   </si>
   <si>
     <t>T0022</t>
+  </si>
+  <si>
+    <t>28/4/2024</t>
   </si>
 </sst>
 </file>
@@ -261,11 +264,107 @@
 <formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" checked="Checked" lockText="1" noThreeD="1"/>
 </file>
 
+<file path=xl/ctrlProps/ctrlProp25.xml><?xml version="1.0" encoding="utf-8"?>
+<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" checked="Checked" lockText="1" noThreeD="1"/>
+</file>
+
+<file path=xl/ctrlProps/ctrlProp26.xml><?xml version="1.0" encoding="utf-8"?>
+<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" checked="Checked" lockText="1" noThreeD="1"/>
+</file>
+
+<file path=xl/ctrlProps/ctrlProp27.xml><?xml version="1.0" encoding="utf-8"?>
+<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" checked="Checked" lockText="1" noThreeD="1"/>
+</file>
+
+<file path=xl/ctrlProps/ctrlProp28.xml><?xml version="1.0" encoding="utf-8"?>
+<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" checked="Checked" lockText="1" noThreeD="1"/>
+</file>
+
+<file path=xl/ctrlProps/ctrlProp29.xml><?xml version="1.0" encoding="utf-8"?>
+<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" checked="Checked" lockText="1" noThreeD="1"/>
+</file>
+
 <file path=xl/ctrlProps/ctrlProp3.xml><?xml version="1.0" encoding="utf-8"?>
 <formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" checked="Checked" lockText="1" noThreeD="1"/>
 </file>
 
+<file path=xl/ctrlProps/ctrlProp30.xml><?xml version="1.0" encoding="utf-8"?>
+<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" checked="Checked" lockText="1" noThreeD="1"/>
+</file>
+
+<file path=xl/ctrlProps/ctrlProp31.xml><?xml version="1.0" encoding="utf-8"?>
+<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" checked="Checked" lockText="1" noThreeD="1"/>
+</file>
+
+<file path=xl/ctrlProps/ctrlProp32.xml><?xml version="1.0" encoding="utf-8"?>
+<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" checked="Checked" lockText="1" noThreeD="1"/>
+</file>
+
+<file path=xl/ctrlProps/ctrlProp33.xml><?xml version="1.0" encoding="utf-8"?>
+<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" checked="Checked" lockText="1" noThreeD="1"/>
+</file>
+
+<file path=xl/ctrlProps/ctrlProp34.xml><?xml version="1.0" encoding="utf-8"?>
+<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" checked="Checked" lockText="1" noThreeD="1"/>
+</file>
+
+<file path=xl/ctrlProps/ctrlProp35.xml><?xml version="1.0" encoding="utf-8"?>
+<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" checked="Checked" lockText="1" noThreeD="1"/>
+</file>
+
+<file path=xl/ctrlProps/ctrlProp36.xml><?xml version="1.0" encoding="utf-8"?>
+<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" checked="Checked" lockText="1" noThreeD="1"/>
+</file>
+
+<file path=xl/ctrlProps/ctrlProp37.xml><?xml version="1.0" encoding="utf-8"?>
+<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" checked="Checked" lockText="1" noThreeD="1"/>
+</file>
+
+<file path=xl/ctrlProps/ctrlProp38.xml><?xml version="1.0" encoding="utf-8"?>
+<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" checked="Checked" lockText="1" noThreeD="1"/>
+</file>
+
+<file path=xl/ctrlProps/ctrlProp39.xml><?xml version="1.0" encoding="utf-8"?>
+<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" checked="Checked" lockText="1" noThreeD="1"/>
+</file>
+
 <file path=xl/ctrlProps/ctrlProp4.xml><?xml version="1.0" encoding="utf-8"?>
+<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" checked="Checked" lockText="1" noThreeD="1"/>
+</file>
+
+<file path=xl/ctrlProps/ctrlProp40.xml><?xml version="1.0" encoding="utf-8"?>
+<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" checked="Checked" lockText="1" noThreeD="1"/>
+</file>
+
+<file path=xl/ctrlProps/ctrlProp41.xml><?xml version="1.0" encoding="utf-8"?>
+<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" checked="Checked" lockText="1" noThreeD="1"/>
+</file>
+
+<file path=xl/ctrlProps/ctrlProp42.xml><?xml version="1.0" encoding="utf-8"?>
+<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" checked="Checked" lockText="1" noThreeD="1"/>
+</file>
+
+<file path=xl/ctrlProps/ctrlProp43.xml><?xml version="1.0" encoding="utf-8"?>
+<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" checked="Checked" lockText="1" noThreeD="1"/>
+</file>
+
+<file path=xl/ctrlProps/ctrlProp44.xml><?xml version="1.0" encoding="utf-8"?>
+<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" checked="Checked" lockText="1" noThreeD="1"/>
+</file>
+
+<file path=xl/ctrlProps/ctrlProp45.xml><?xml version="1.0" encoding="utf-8"?>
+<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" checked="Checked" lockText="1" noThreeD="1"/>
+</file>
+
+<file path=xl/ctrlProps/ctrlProp46.xml><?xml version="1.0" encoding="utf-8"?>
+<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" checked="Checked" lockText="1" noThreeD="1"/>
+</file>
+
+<file path=xl/ctrlProps/ctrlProp47.xml><?xml version="1.0" encoding="utf-8"?>
+<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" checked="Checked" lockText="1" noThreeD="1"/>
+</file>
+
+<file path=xl/ctrlProps/ctrlProp48.xml><?xml version="1.0" encoding="utf-8"?>
 <formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" checked="Checked" lockText="1" noThreeD="1"/>
 </file>
 
@@ -1834,14 +1933,19 @@
   </mc:AlternateContent>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
-      <xdr:oneCellAnchor>
+      <xdr:twoCellAnchor editAs="oneCell">
         <xdr:from>
           <xdr:col>10</xdr:col>
           <xdr:colOff>175260</xdr:colOff>
           <xdr:row>3</xdr:row>
           <xdr:rowOff>152400</xdr:rowOff>
         </xdr:from>
-        <xdr:ext cx="388620" cy="281940"/>
+        <xdr:to>
+          <xdr:col>10</xdr:col>
+          <xdr:colOff>563880</xdr:colOff>
+          <xdr:row>5</xdr:row>
+          <xdr:rowOff>45720</xdr:rowOff>
+        </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="1048" name="Check Box 24" hidden="1">
@@ -1850,7 +1954,1495 @@
                   <a14:compatExt spid="_x0000_s1048"/>
                 </a:ext>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{2B13F3FC-4490-42A4-8821-7EC5BDDD9C78}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000018040000}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr/>
+          </xdr:nvSpPr>
+          <xdr:spPr bwMode="auto">
+            <a:xfrm>
+              <a:off x="0" y="0"/>
+              <a:ext cx="0" cy="0"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:extLst>
+              <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+                <a14:hiddenFill>
+                  <a:solidFill>
+                    <a:srgbClr val="FFFFFF" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="65"/>
+                  </a:solidFill>
+                </a14:hiddenFill>
+              </a:ext>
+              <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
+                <a14:hiddenLine w="9525">
+                  <a:solidFill>
+                    <a:srgbClr val="000000" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="64"/>
+                  </a:solidFill>
+                  <a:miter lim="800000"/>
+                  <a:headEnd/>
+                  <a:tailEnd/>
+                </a14:hiddenLine>
+              </a:ext>
+            </a:extLst>
+          </xdr:spPr>
+        </xdr:sp>
+        <xdr:clientData/>
+      </xdr:twoCellAnchor>
+    </mc:Choice>
+    <mc:Fallback/>
+  </mc:AlternateContent>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+      <xdr:oneCellAnchor>
+        <xdr:from>
+          <xdr:col>2</xdr:col>
+          <xdr:colOff>175260</xdr:colOff>
+          <xdr:row>6</xdr:row>
+          <xdr:rowOff>152400</xdr:rowOff>
+        </xdr:from>
+        <xdr:ext cx="388620" cy="281940"/>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="1049" name="Check Box 25" hidden="1">
+              <a:extLst>
+                <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
+                  <a14:compatExt spid="_x0000_s1049"/>
+                </a:ext>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{197E21F5-4767-47DF-A613-5C419EA6A52C}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr/>
+          </xdr:nvSpPr>
+          <xdr:spPr bwMode="auto">
+            <a:xfrm>
+              <a:off x="0" y="0"/>
+              <a:ext cx="0" cy="0"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:extLst>
+              <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+                <a14:hiddenFill>
+                  <a:solidFill>
+                    <a:srgbClr val="FFFFFF" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="65"/>
+                  </a:solidFill>
+                </a14:hiddenFill>
+              </a:ext>
+              <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
+                <a14:hiddenLine w="9525">
+                  <a:solidFill>
+                    <a:srgbClr val="000000" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="64"/>
+                  </a:solidFill>
+                  <a:miter lim="800000"/>
+                  <a:headEnd/>
+                  <a:tailEnd/>
+                </a14:hiddenLine>
+              </a:ext>
+            </a:extLst>
+          </xdr:spPr>
+        </xdr:sp>
+        <xdr:clientData/>
+      </xdr:oneCellAnchor>
+    </mc:Choice>
+    <mc:Fallback/>
+  </mc:AlternateContent>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+      <xdr:oneCellAnchor>
+        <xdr:from>
+          <xdr:col>3</xdr:col>
+          <xdr:colOff>175260</xdr:colOff>
+          <xdr:row>6</xdr:row>
+          <xdr:rowOff>152400</xdr:rowOff>
+        </xdr:from>
+        <xdr:ext cx="388620" cy="281940"/>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="1050" name="Check Box 26" hidden="1">
+              <a:extLst>
+                <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
+                  <a14:compatExt spid="_x0000_s1050"/>
+                </a:ext>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A733020B-51BB-4B9E-B2FE-BEFA7DA85A0C}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr/>
+          </xdr:nvSpPr>
+          <xdr:spPr bwMode="auto">
+            <a:xfrm>
+              <a:off x="0" y="0"/>
+              <a:ext cx="0" cy="0"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:extLst>
+              <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+                <a14:hiddenFill>
+                  <a:solidFill>
+                    <a:srgbClr val="FFFFFF" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="65"/>
+                  </a:solidFill>
+                </a14:hiddenFill>
+              </a:ext>
+              <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
+                <a14:hiddenLine w="9525">
+                  <a:solidFill>
+                    <a:srgbClr val="000000" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="64"/>
+                  </a:solidFill>
+                  <a:miter lim="800000"/>
+                  <a:headEnd/>
+                  <a:tailEnd/>
+                </a14:hiddenLine>
+              </a:ext>
+            </a:extLst>
+          </xdr:spPr>
+        </xdr:sp>
+        <xdr:clientData/>
+      </xdr:oneCellAnchor>
+    </mc:Choice>
+    <mc:Fallback/>
+  </mc:AlternateContent>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+      <xdr:oneCellAnchor>
+        <xdr:from>
+          <xdr:col>4</xdr:col>
+          <xdr:colOff>175260</xdr:colOff>
+          <xdr:row>6</xdr:row>
+          <xdr:rowOff>152400</xdr:rowOff>
+        </xdr:from>
+        <xdr:ext cx="388620" cy="281940"/>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="1051" name="Check Box 27" hidden="1">
+              <a:extLst>
+                <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
+                  <a14:compatExt spid="_x0000_s1051"/>
+                </a:ext>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3D2F4218-638B-40E9-AA2C-53D0E20A85CC}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr/>
+          </xdr:nvSpPr>
+          <xdr:spPr bwMode="auto">
+            <a:xfrm>
+              <a:off x="0" y="0"/>
+              <a:ext cx="0" cy="0"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:extLst>
+              <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+                <a14:hiddenFill>
+                  <a:solidFill>
+                    <a:srgbClr val="FFFFFF" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="65"/>
+                  </a:solidFill>
+                </a14:hiddenFill>
+              </a:ext>
+              <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
+                <a14:hiddenLine w="9525">
+                  <a:solidFill>
+                    <a:srgbClr val="000000" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="64"/>
+                  </a:solidFill>
+                  <a:miter lim="800000"/>
+                  <a:headEnd/>
+                  <a:tailEnd/>
+                </a14:hiddenLine>
+              </a:ext>
+            </a:extLst>
+          </xdr:spPr>
+        </xdr:sp>
+        <xdr:clientData/>
+      </xdr:oneCellAnchor>
+    </mc:Choice>
+    <mc:Fallback/>
+  </mc:AlternateContent>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+      <xdr:oneCellAnchor>
+        <xdr:from>
+          <xdr:col>5</xdr:col>
+          <xdr:colOff>175260</xdr:colOff>
+          <xdr:row>6</xdr:row>
+          <xdr:rowOff>152400</xdr:rowOff>
+        </xdr:from>
+        <xdr:ext cx="388620" cy="281940"/>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="1052" name="Check Box 28" hidden="1">
+              <a:extLst>
+                <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
+                  <a14:compatExt spid="_x0000_s1052"/>
+                </a:ext>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D2509CDF-28A0-4AF3-B09B-F8BB1164AA98}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr/>
+          </xdr:nvSpPr>
+          <xdr:spPr bwMode="auto">
+            <a:xfrm>
+              <a:off x="0" y="0"/>
+              <a:ext cx="0" cy="0"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:extLst>
+              <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+                <a14:hiddenFill>
+                  <a:solidFill>
+                    <a:srgbClr val="FFFFFF" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="65"/>
+                  </a:solidFill>
+                </a14:hiddenFill>
+              </a:ext>
+              <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
+                <a14:hiddenLine w="9525">
+                  <a:solidFill>
+                    <a:srgbClr val="000000" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="64"/>
+                  </a:solidFill>
+                  <a:miter lim="800000"/>
+                  <a:headEnd/>
+                  <a:tailEnd/>
+                </a14:hiddenLine>
+              </a:ext>
+            </a:extLst>
+          </xdr:spPr>
+        </xdr:sp>
+        <xdr:clientData/>
+      </xdr:oneCellAnchor>
+    </mc:Choice>
+    <mc:Fallback/>
+  </mc:AlternateContent>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+      <xdr:oneCellAnchor>
+        <xdr:from>
+          <xdr:col>6</xdr:col>
+          <xdr:colOff>175260</xdr:colOff>
+          <xdr:row>6</xdr:row>
+          <xdr:rowOff>152400</xdr:rowOff>
+        </xdr:from>
+        <xdr:ext cx="388620" cy="281940"/>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="1053" name="Check Box 29" hidden="1">
+              <a:extLst>
+                <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
+                  <a14:compatExt spid="_x0000_s1053"/>
+                </a:ext>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EB3142C2-14A8-4A96-8052-78E40627FF55}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr/>
+          </xdr:nvSpPr>
+          <xdr:spPr bwMode="auto">
+            <a:xfrm>
+              <a:off x="0" y="0"/>
+              <a:ext cx="0" cy="0"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:extLst>
+              <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+                <a14:hiddenFill>
+                  <a:solidFill>
+                    <a:srgbClr val="FFFFFF" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="65"/>
+                  </a:solidFill>
+                </a14:hiddenFill>
+              </a:ext>
+              <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
+                <a14:hiddenLine w="9525">
+                  <a:solidFill>
+                    <a:srgbClr val="000000" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="64"/>
+                  </a:solidFill>
+                  <a:miter lim="800000"/>
+                  <a:headEnd/>
+                  <a:tailEnd/>
+                </a14:hiddenLine>
+              </a:ext>
+            </a:extLst>
+          </xdr:spPr>
+        </xdr:sp>
+        <xdr:clientData/>
+      </xdr:oneCellAnchor>
+    </mc:Choice>
+    <mc:Fallback/>
+  </mc:AlternateContent>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+      <xdr:oneCellAnchor>
+        <xdr:from>
+          <xdr:col>7</xdr:col>
+          <xdr:colOff>175260</xdr:colOff>
+          <xdr:row>6</xdr:row>
+          <xdr:rowOff>152400</xdr:rowOff>
+        </xdr:from>
+        <xdr:ext cx="388620" cy="281940"/>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="1054" name="Check Box 30" hidden="1">
+              <a:extLst>
+                <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
+                  <a14:compatExt spid="_x0000_s1054"/>
+                </a:ext>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{85914549-79F3-4E0F-86AD-9D4D4203F3B9}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr/>
+          </xdr:nvSpPr>
+          <xdr:spPr bwMode="auto">
+            <a:xfrm>
+              <a:off x="0" y="0"/>
+              <a:ext cx="0" cy="0"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:extLst>
+              <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+                <a14:hiddenFill>
+                  <a:solidFill>
+                    <a:srgbClr val="FFFFFF" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="65"/>
+                  </a:solidFill>
+                </a14:hiddenFill>
+              </a:ext>
+              <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
+                <a14:hiddenLine w="9525">
+                  <a:solidFill>
+                    <a:srgbClr val="000000" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="64"/>
+                  </a:solidFill>
+                  <a:miter lim="800000"/>
+                  <a:headEnd/>
+                  <a:tailEnd/>
+                </a14:hiddenLine>
+              </a:ext>
+            </a:extLst>
+          </xdr:spPr>
+        </xdr:sp>
+        <xdr:clientData/>
+      </xdr:oneCellAnchor>
+    </mc:Choice>
+    <mc:Fallback/>
+  </mc:AlternateContent>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+      <xdr:oneCellAnchor>
+        <xdr:from>
+          <xdr:col>8</xdr:col>
+          <xdr:colOff>175260</xdr:colOff>
+          <xdr:row>6</xdr:row>
+          <xdr:rowOff>152400</xdr:rowOff>
+        </xdr:from>
+        <xdr:ext cx="388620" cy="281940"/>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="1055" name="Check Box 31" hidden="1">
+              <a:extLst>
+                <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
+                  <a14:compatExt spid="_x0000_s1055"/>
+                </a:ext>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5E9E48FA-7D74-4BA5-BA64-24F735F40696}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr/>
+          </xdr:nvSpPr>
+          <xdr:spPr bwMode="auto">
+            <a:xfrm>
+              <a:off x="0" y="0"/>
+              <a:ext cx="0" cy="0"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:extLst>
+              <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+                <a14:hiddenFill>
+                  <a:solidFill>
+                    <a:srgbClr val="FFFFFF" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="65"/>
+                  </a:solidFill>
+                </a14:hiddenFill>
+              </a:ext>
+              <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
+                <a14:hiddenLine w="9525">
+                  <a:solidFill>
+                    <a:srgbClr val="000000" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="64"/>
+                  </a:solidFill>
+                  <a:miter lim="800000"/>
+                  <a:headEnd/>
+                  <a:tailEnd/>
+                </a14:hiddenLine>
+              </a:ext>
+            </a:extLst>
+          </xdr:spPr>
+        </xdr:sp>
+        <xdr:clientData/>
+      </xdr:oneCellAnchor>
+    </mc:Choice>
+    <mc:Fallback/>
+  </mc:AlternateContent>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+      <xdr:oneCellAnchor>
+        <xdr:from>
+          <xdr:col>9</xdr:col>
+          <xdr:colOff>175260</xdr:colOff>
+          <xdr:row>6</xdr:row>
+          <xdr:rowOff>152400</xdr:rowOff>
+        </xdr:from>
+        <xdr:ext cx="388620" cy="281940"/>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="1056" name="Check Box 32" hidden="1">
+              <a:extLst>
+                <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
+                  <a14:compatExt spid="_x0000_s1056"/>
+                </a:ext>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0B8399DB-F7D5-41BA-BC5B-02668CA0CD86}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr/>
+          </xdr:nvSpPr>
+          <xdr:spPr bwMode="auto">
+            <a:xfrm>
+              <a:off x="0" y="0"/>
+              <a:ext cx="0" cy="0"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:extLst>
+              <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+                <a14:hiddenFill>
+                  <a:solidFill>
+                    <a:srgbClr val="FFFFFF" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="65"/>
+                  </a:solidFill>
+                </a14:hiddenFill>
+              </a:ext>
+              <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
+                <a14:hiddenLine w="9525">
+                  <a:solidFill>
+                    <a:srgbClr val="000000" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="64"/>
+                  </a:solidFill>
+                  <a:miter lim="800000"/>
+                  <a:headEnd/>
+                  <a:tailEnd/>
+                </a14:hiddenLine>
+              </a:ext>
+            </a:extLst>
+          </xdr:spPr>
+        </xdr:sp>
+        <xdr:clientData/>
+      </xdr:oneCellAnchor>
+    </mc:Choice>
+    <mc:Fallback/>
+  </mc:AlternateContent>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+      <xdr:oneCellAnchor>
+        <xdr:from>
+          <xdr:col>10</xdr:col>
+          <xdr:colOff>175260</xdr:colOff>
+          <xdr:row>6</xdr:row>
+          <xdr:rowOff>152400</xdr:rowOff>
+        </xdr:from>
+        <xdr:ext cx="388620" cy="281940"/>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="1057" name="Check Box 33" hidden="1">
+              <a:extLst>
+                <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
+                  <a14:compatExt spid="_x0000_s1057"/>
+                </a:ext>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3EBCDDF2-3AF8-440E-BFD6-574E4F6B2A95}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr/>
+          </xdr:nvSpPr>
+          <xdr:spPr bwMode="auto">
+            <a:xfrm>
+              <a:off x="0" y="0"/>
+              <a:ext cx="0" cy="0"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:extLst>
+              <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+                <a14:hiddenFill>
+                  <a:solidFill>
+                    <a:srgbClr val="FFFFFF" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="65"/>
+                  </a:solidFill>
+                </a14:hiddenFill>
+              </a:ext>
+              <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
+                <a14:hiddenLine w="9525">
+                  <a:solidFill>
+                    <a:srgbClr val="000000" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="64"/>
+                  </a:solidFill>
+                  <a:miter lim="800000"/>
+                  <a:headEnd/>
+                  <a:tailEnd/>
+                </a14:hiddenLine>
+              </a:ext>
+            </a:extLst>
+          </xdr:spPr>
+        </xdr:sp>
+        <xdr:clientData/>
+      </xdr:oneCellAnchor>
+    </mc:Choice>
+    <mc:Fallback/>
+  </mc:AlternateContent>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+      <xdr:oneCellAnchor>
+        <xdr:from>
+          <xdr:col>11</xdr:col>
+          <xdr:colOff>175260</xdr:colOff>
+          <xdr:row>6</xdr:row>
+          <xdr:rowOff>152400</xdr:rowOff>
+        </xdr:from>
+        <xdr:ext cx="388620" cy="281940"/>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="1058" name="Check Box 34" hidden="1">
+              <a:extLst>
+                <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
+                  <a14:compatExt spid="_x0000_s1058"/>
+                </a:ext>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{2F3861F2-8746-4E42-80ED-FEF5A9077671}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr/>
+          </xdr:nvSpPr>
+          <xdr:spPr bwMode="auto">
+            <a:xfrm>
+              <a:off x="0" y="0"/>
+              <a:ext cx="0" cy="0"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:extLst>
+              <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+                <a14:hiddenFill>
+                  <a:solidFill>
+                    <a:srgbClr val="FFFFFF" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="65"/>
+                  </a:solidFill>
+                </a14:hiddenFill>
+              </a:ext>
+              <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
+                <a14:hiddenLine w="9525">
+                  <a:solidFill>
+                    <a:srgbClr val="000000" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="64"/>
+                  </a:solidFill>
+                  <a:miter lim="800000"/>
+                  <a:headEnd/>
+                  <a:tailEnd/>
+                </a14:hiddenLine>
+              </a:ext>
+            </a:extLst>
+          </xdr:spPr>
+        </xdr:sp>
+        <xdr:clientData/>
+      </xdr:oneCellAnchor>
+    </mc:Choice>
+    <mc:Fallback/>
+  </mc:AlternateContent>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+      <xdr:oneCellAnchor>
+        <xdr:from>
+          <xdr:col>12</xdr:col>
+          <xdr:colOff>175260</xdr:colOff>
+          <xdr:row>6</xdr:row>
+          <xdr:rowOff>152400</xdr:rowOff>
+        </xdr:from>
+        <xdr:ext cx="388620" cy="281940"/>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="1059" name="Check Box 35" hidden="1">
+              <a:extLst>
+                <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
+                  <a14:compatExt spid="_x0000_s1059"/>
+                </a:ext>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{4AB996C8-BA66-4D0D-A337-AE26E7C34F85}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr/>
+          </xdr:nvSpPr>
+          <xdr:spPr bwMode="auto">
+            <a:xfrm>
+              <a:off x="0" y="0"/>
+              <a:ext cx="0" cy="0"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:extLst>
+              <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+                <a14:hiddenFill>
+                  <a:solidFill>
+                    <a:srgbClr val="FFFFFF" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="65"/>
+                  </a:solidFill>
+                </a14:hiddenFill>
+              </a:ext>
+              <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
+                <a14:hiddenLine w="9525">
+                  <a:solidFill>
+                    <a:srgbClr val="000000" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="64"/>
+                  </a:solidFill>
+                  <a:miter lim="800000"/>
+                  <a:headEnd/>
+                  <a:tailEnd/>
+                </a14:hiddenLine>
+              </a:ext>
+            </a:extLst>
+          </xdr:spPr>
+        </xdr:sp>
+        <xdr:clientData/>
+      </xdr:oneCellAnchor>
+    </mc:Choice>
+    <mc:Fallback/>
+  </mc:AlternateContent>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+      <xdr:oneCellAnchor>
+        <xdr:from>
+          <xdr:col>13</xdr:col>
+          <xdr:colOff>175260</xdr:colOff>
+          <xdr:row>6</xdr:row>
+          <xdr:rowOff>152400</xdr:rowOff>
+        </xdr:from>
+        <xdr:ext cx="388620" cy="281940"/>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="1060" name="Check Box 36" hidden="1">
+              <a:extLst>
+                <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
+                  <a14:compatExt spid="_x0000_s1060"/>
+                </a:ext>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{95DE100D-6C5C-4177-9487-2446546F57E2}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr/>
+          </xdr:nvSpPr>
+          <xdr:spPr bwMode="auto">
+            <a:xfrm>
+              <a:off x="0" y="0"/>
+              <a:ext cx="0" cy="0"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:extLst>
+              <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+                <a14:hiddenFill>
+                  <a:solidFill>
+                    <a:srgbClr val="FFFFFF" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="65"/>
+                  </a:solidFill>
+                </a14:hiddenFill>
+              </a:ext>
+              <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
+                <a14:hiddenLine w="9525">
+                  <a:solidFill>
+                    <a:srgbClr val="000000" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="64"/>
+                  </a:solidFill>
+                  <a:miter lim="800000"/>
+                  <a:headEnd/>
+                  <a:tailEnd/>
+                </a14:hiddenLine>
+              </a:ext>
+            </a:extLst>
+          </xdr:spPr>
+        </xdr:sp>
+        <xdr:clientData/>
+      </xdr:oneCellAnchor>
+    </mc:Choice>
+    <mc:Fallback/>
+  </mc:AlternateContent>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+      <xdr:oneCellAnchor>
+        <xdr:from>
+          <xdr:col>12</xdr:col>
+          <xdr:colOff>175260</xdr:colOff>
+          <xdr:row>6</xdr:row>
+          <xdr:rowOff>152400</xdr:rowOff>
+        </xdr:from>
+        <xdr:ext cx="388620" cy="281940"/>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="1061" name="Check Box 37" hidden="1">
+              <a:extLst>
+                <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
+                  <a14:compatExt spid="_x0000_s1061"/>
+                </a:ext>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{524BBDE7-E050-496F-9B3C-ABB4B8E0EDDD}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr/>
+          </xdr:nvSpPr>
+          <xdr:spPr bwMode="auto">
+            <a:xfrm>
+              <a:off x="0" y="0"/>
+              <a:ext cx="0" cy="0"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:extLst>
+              <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+                <a14:hiddenFill>
+                  <a:solidFill>
+                    <a:srgbClr val="FFFFFF" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="65"/>
+                  </a:solidFill>
+                </a14:hiddenFill>
+              </a:ext>
+              <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
+                <a14:hiddenLine w="9525">
+                  <a:solidFill>
+                    <a:srgbClr val="000000" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="64"/>
+                  </a:solidFill>
+                  <a:miter lim="800000"/>
+                  <a:headEnd/>
+                  <a:tailEnd/>
+                </a14:hiddenLine>
+              </a:ext>
+            </a:extLst>
+          </xdr:spPr>
+        </xdr:sp>
+        <xdr:clientData/>
+      </xdr:oneCellAnchor>
+    </mc:Choice>
+    <mc:Fallback/>
+  </mc:AlternateContent>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+      <xdr:oneCellAnchor>
+        <xdr:from>
+          <xdr:col>13</xdr:col>
+          <xdr:colOff>175260</xdr:colOff>
+          <xdr:row>6</xdr:row>
+          <xdr:rowOff>152400</xdr:rowOff>
+        </xdr:from>
+        <xdr:ext cx="388620" cy="281940"/>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="1062" name="Check Box 38" hidden="1">
+              <a:extLst>
+                <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
+                  <a14:compatExt spid="_x0000_s1062"/>
+                </a:ext>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E33479B8-01F7-4DFD-B10F-A6C1BC4417B8}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr/>
+          </xdr:nvSpPr>
+          <xdr:spPr bwMode="auto">
+            <a:xfrm>
+              <a:off x="0" y="0"/>
+              <a:ext cx="0" cy="0"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:extLst>
+              <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+                <a14:hiddenFill>
+                  <a:solidFill>
+                    <a:srgbClr val="FFFFFF" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="65"/>
+                  </a:solidFill>
+                </a14:hiddenFill>
+              </a:ext>
+              <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
+                <a14:hiddenLine w="9525">
+                  <a:solidFill>
+                    <a:srgbClr val="000000" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="64"/>
+                  </a:solidFill>
+                  <a:miter lim="800000"/>
+                  <a:headEnd/>
+                  <a:tailEnd/>
+                </a14:hiddenLine>
+              </a:ext>
+            </a:extLst>
+          </xdr:spPr>
+        </xdr:sp>
+        <xdr:clientData/>
+      </xdr:oneCellAnchor>
+    </mc:Choice>
+    <mc:Fallback/>
+  </mc:AlternateContent>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+      <xdr:oneCellAnchor>
+        <xdr:from>
+          <xdr:col>14</xdr:col>
+          <xdr:colOff>175260</xdr:colOff>
+          <xdr:row>6</xdr:row>
+          <xdr:rowOff>152400</xdr:rowOff>
+        </xdr:from>
+        <xdr:ext cx="388620" cy="281940"/>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="1063" name="Check Box 39" hidden="1">
+              <a:extLst>
+                <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
+                  <a14:compatExt spid="_x0000_s1063"/>
+                </a:ext>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{AB240147-81BA-442E-8923-0C38AA72503A}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr/>
+          </xdr:nvSpPr>
+          <xdr:spPr bwMode="auto">
+            <a:xfrm>
+              <a:off x="0" y="0"/>
+              <a:ext cx="0" cy="0"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:extLst>
+              <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+                <a14:hiddenFill>
+                  <a:solidFill>
+                    <a:srgbClr val="FFFFFF" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="65"/>
+                  </a:solidFill>
+                </a14:hiddenFill>
+              </a:ext>
+              <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
+                <a14:hiddenLine w="9525">
+                  <a:solidFill>
+                    <a:srgbClr val="000000" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="64"/>
+                  </a:solidFill>
+                  <a:miter lim="800000"/>
+                  <a:headEnd/>
+                  <a:tailEnd/>
+                </a14:hiddenLine>
+              </a:ext>
+            </a:extLst>
+          </xdr:spPr>
+        </xdr:sp>
+        <xdr:clientData/>
+      </xdr:oneCellAnchor>
+    </mc:Choice>
+    <mc:Fallback/>
+  </mc:AlternateContent>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+      <xdr:oneCellAnchor>
+        <xdr:from>
+          <xdr:col>2</xdr:col>
+          <xdr:colOff>175260</xdr:colOff>
+          <xdr:row>8</xdr:row>
+          <xdr:rowOff>152400</xdr:rowOff>
+        </xdr:from>
+        <xdr:ext cx="388620" cy="281940"/>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="1064" name="Check Box 40" hidden="1">
+              <a:extLst>
+                <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
+                  <a14:compatExt spid="_x0000_s1064"/>
+                </a:ext>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D3AAD4FA-DA17-4D07-AF42-862DB6100151}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr/>
+          </xdr:nvSpPr>
+          <xdr:spPr bwMode="auto">
+            <a:xfrm>
+              <a:off x="0" y="0"/>
+              <a:ext cx="0" cy="0"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:extLst>
+              <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+                <a14:hiddenFill>
+                  <a:solidFill>
+                    <a:srgbClr val="FFFFFF" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="65"/>
+                  </a:solidFill>
+                </a14:hiddenFill>
+              </a:ext>
+              <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
+                <a14:hiddenLine w="9525">
+                  <a:solidFill>
+                    <a:srgbClr val="000000" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="64"/>
+                  </a:solidFill>
+                  <a:miter lim="800000"/>
+                  <a:headEnd/>
+                  <a:tailEnd/>
+                </a14:hiddenLine>
+              </a:ext>
+            </a:extLst>
+          </xdr:spPr>
+        </xdr:sp>
+        <xdr:clientData/>
+      </xdr:oneCellAnchor>
+    </mc:Choice>
+    <mc:Fallback/>
+  </mc:AlternateContent>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+      <xdr:oneCellAnchor>
+        <xdr:from>
+          <xdr:col>3</xdr:col>
+          <xdr:colOff>175260</xdr:colOff>
+          <xdr:row>8</xdr:row>
+          <xdr:rowOff>152400</xdr:rowOff>
+        </xdr:from>
+        <xdr:ext cx="388620" cy="281940"/>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="1065" name="Check Box 41" hidden="1">
+              <a:extLst>
+                <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
+                  <a14:compatExt spid="_x0000_s1065"/>
+                </a:ext>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A514E949-45A3-465C-813A-274F342FB539}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr/>
+          </xdr:nvSpPr>
+          <xdr:spPr bwMode="auto">
+            <a:xfrm>
+              <a:off x="0" y="0"/>
+              <a:ext cx="0" cy="0"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:extLst>
+              <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+                <a14:hiddenFill>
+                  <a:solidFill>
+                    <a:srgbClr val="FFFFFF" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="65"/>
+                  </a:solidFill>
+                </a14:hiddenFill>
+              </a:ext>
+              <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
+                <a14:hiddenLine w="9525">
+                  <a:solidFill>
+                    <a:srgbClr val="000000" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="64"/>
+                  </a:solidFill>
+                  <a:miter lim="800000"/>
+                  <a:headEnd/>
+                  <a:tailEnd/>
+                </a14:hiddenLine>
+              </a:ext>
+            </a:extLst>
+          </xdr:spPr>
+        </xdr:sp>
+        <xdr:clientData/>
+      </xdr:oneCellAnchor>
+    </mc:Choice>
+    <mc:Fallback/>
+  </mc:AlternateContent>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+      <xdr:oneCellAnchor>
+        <xdr:from>
+          <xdr:col>4</xdr:col>
+          <xdr:colOff>175260</xdr:colOff>
+          <xdr:row>8</xdr:row>
+          <xdr:rowOff>152400</xdr:rowOff>
+        </xdr:from>
+        <xdr:ext cx="388620" cy="281940"/>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="1066" name="Check Box 42" hidden="1">
+              <a:extLst>
+                <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
+                  <a14:compatExt spid="_x0000_s1066"/>
+                </a:ext>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E63264A5-B9D0-41AB-A148-A21DF7628543}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr/>
+          </xdr:nvSpPr>
+          <xdr:spPr bwMode="auto">
+            <a:xfrm>
+              <a:off x="0" y="0"/>
+              <a:ext cx="0" cy="0"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:extLst>
+              <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+                <a14:hiddenFill>
+                  <a:solidFill>
+                    <a:srgbClr val="FFFFFF" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="65"/>
+                  </a:solidFill>
+                </a14:hiddenFill>
+              </a:ext>
+              <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
+                <a14:hiddenLine w="9525">
+                  <a:solidFill>
+                    <a:srgbClr val="000000" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="64"/>
+                  </a:solidFill>
+                  <a:miter lim="800000"/>
+                  <a:headEnd/>
+                  <a:tailEnd/>
+                </a14:hiddenLine>
+              </a:ext>
+            </a:extLst>
+          </xdr:spPr>
+        </xdr:sp>
+        <xdr:clientData/>
+      </xdr:oneCellAnchor>
+    </mc:Choice>
+    <mc:Fallback/>
+  </mc:AlternateContent>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+      <xdr:oneCellAnchor>
+        <xdr:from>
+          <xdr:col>5</xdr:col>
+          <xdr:colOff>175260</xdr:colOff>
+          <xdr:row>8</xdr:row>
+          <xdr:rowOff>152400</xdr:rowOff>
+        </xdr:from>
+        <xdr:ext cx="388620" cy="281940"/>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="1067" name="Check Box 43" hidden="1">
+              <a:extLst>
+                <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
+                  <a14:compatExt spid="_x0000_s1067"/>
+                </a:ext>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{BCF593ED-2164-4E92-ACD4-EBF05F24AE31}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr/>
+          </xdr:nvSpPr>
+          <xdr:spPr bwMode="auto">
+            <a:xfrm>
+              <a:off x="0" y="0"/>
+              <a:ext cx="0" cy="0"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:extLst>
+              <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+                <a14:hiddenFill>
+                  <a:solidFill>
+                    <a:srgbClr val="FFFFFF" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="65"/>
+                  </a:solidFill>
+                </a14:hiddenFill>
+              </a:ext>
+              <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
+                <a14:hiddenLine w="9525">
+                  <a:solidFill>
+                    <a:srgbClr val="000000" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="64"/>
+                  </a:solidFill>
+                  <a:miter lim="800000"/>
+                  <a:headEnd/>
+                  <a:tailEnd/>
+                </a14:hiddenLine>
+              </a:ext>
+            </a:extLst>
+          </xdr:spPr>
+        </xdr:sp>
+        <xdr:clientData/>
+      </xdr:oneCellAnchor>
+    </mc:Choice>
+    <mc:Fallback/>
+  </mc:AlternateContent>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+      <xdr:oneCellAnchor>
+        <xdr:from>
+          <xdr:col>6</xdr:col>
+          <xdr:colOff>175260</xdr:colOff>
+          <xdr:row>8</xdr:row>
+          <xdr:rowOff>152400</xdr:rowOff>
+        </xdr:from>
+        <xdr:ext cx="388620" cy="281940"/>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="1068" name="Check Box 44" hidden="1">
+              <a:extLst>
+                <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
+                  <a14:compatExt spid="_x0000_s1068"/>
+                </a:ext>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{19941993-55C3-4F4B-A720-8B0A43932681}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr/>
+          </xdr:nvSpPr>
+          <xdr:spPr bwMode="auto">
+            <a:xfrm>
+              <a:off x="0" y="0"/>
+              <a:ext cx="0" cy="0"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:extLst>
+              <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+                <a14:hiddenFill>
+                  <a:solidFill>
+                    <a:srgbClr val="FFFFFF" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="65"/>
+                  </a:solidFill>
+                </a14:hiddenFill>
+              </a:ext>
+              <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
+                <a14:hiddenLine w="9525">
+                  <a:solidFill>
+                    <a:srgbClr val="000000" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="64"/>
+                  </a:solidFill>
+                  <a:miter lim="800000"/>
+                  <a:headEnd/>
+                  <a:tailEnd/>
+                </a14:hiddenLine>
+              </a:ext>
+            </a:extLst>
+          </xdr:spPr>
+        </xdr:sp>
+        <xdr:clientData/>
+      </xdr:oneCellAnchor>
+    </mc:Choice>
+    <mc:Fallback/>
+  </mc:AlternateContent>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+      <xdr:oneCellAnchor>
+        <xdr:from>
+          <xdr:col>7</xdr:col>
+          <xdr:colOff>175260</xdr:colOff>
+          <xdr:row>8</xdr:row>
+          <xdr:rowOff>152400</xdr:rowOff>
+        </xdr:from>
+        <xdr:ext cx="388620" cy="281940"/>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="1069" name="Check Box 45" hidden="1">
+              <a:extLst>
+                <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
+                  <a14:compatExt spid="_x0000_s1069"/>
+                </a:ext>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{55C650EB-50BD-474D-BA2F-DD5C34FA1A6E}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr/>
+          </xdr:nvSpPr>
+          <xdr:spPr bwMode="auto">
+            <a:xfrm>
+              <a:off x="0" y="0"/>
+              <a:ext cx="0" cy="0"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:extLst>
+              <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+                <a14:hiddenFill>
+                  <a:solidFill>
+                    <a:srgbClr val="FFFFFF" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="65"/>
+                  </a:solidFill>
+                </a14:hiddenFill>
+              </a:ext>
+              <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
+                <a14:hiddenLine w="9525">
+                  <a:solidFill>
+                    <a:srgbClr val="000000" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="64"/>
+                  </a:solidFill>
+                  <a:miter lim="800000"/>
+                  <a:headEnd/>
+                  <a:tailEnd/>
+                </a14:hiddenLine>
+              </a:ext>
+            </a:extLst>
+          </xdr:spPr>
+        </xdr:sp>
+        <xdr:clientData/>
+      </xdr:oneCellAnchor>
+    </mc:Choice>
+    <mc:Fallback/>
+  </mc:AlternateContent>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+      <xdr:oneCellAnchor>
+        <xdr:from>
+          <xdr:col>8</xdr:col>
+          <xdr:colOff>175260</xdr:colOff>
+          <xdr:row>8</xdr:row>
+          <xdr:rowOff>152400</xdr:rowOff>
+        </xdr:from>
+        <xdr:ext cx="388620" cy="281940"/>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="1070" name="Check Box 46" hidden="1">
+              <a:extLst>
+                <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
+                  <a14:compatExt spid="_x0000_s1070"/>
+                </a:ext>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{76C8B937-6048-445F-8CA3-6ABCBDC4C82D}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr/>
+          </xdr:nvSpPr>
+          <xdr:spPr bwMode="auto">
+            <a:xfrm>
+              <a:off x="0" y="0"/>
+              <a:ext cx="0" cy="0"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:extLst>
+              <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+                <a14:hiddenFill>
+                  <a:solidFill>
+                    <a:srgbClr val="FFFFFF" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="65"/>
+                  </a:solidFill>
+                </a14:hiddenFill>
+              </a:ext>
+              <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
+                <a14:hiddenLine w="9525">
+                  <a:solidFill>
+                    <a:srgbClr val="000000" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="64"/>
+                  </a:solidFill>
+                  <a:miter lim="800000"/>
+                  <a:headEnd/>
+                  <a:tailEnd/>
+                </a14:hiddenLine>
+              </a:ext>
+            </a:extLst>
+          </xdr:spPr>
+        </xdr:sp>
+        <xdr:clientData/>
+      </xdr:oneCellAnchor>
+    </mc:Choice>
+    <mc:Fallback/>
+  </mc:AlternateContent>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+      <xdr:oneCellAnchor>
+        <xdr:from>
+          <xdr:col>9</xdr:col>
+          <xdr:colOff>175260</xdr:colOff>
+          <xdr:row>8</xdr:row>
+          <xdr:rowOff>152400</xdr:rowOff>
+        </xdr:from>
+        <xdr:ext cx="388620" cy="281940"/>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="1071" name="Check Box 47" hidden="1">
+              <a:extLst>
+                <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
+                  <a14:compatExt spid="_x0000_s1071"/>
+                </a:ext>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{DEBE4041-0EF1-4A5C-B4FD-7C1343C0B017}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr/>
+          </xdr:nvSpPr>
+          <xdr:spPr bwMode="auto">
+            <a:xfrm>
+              <a:off x="0" y="0"/>
+              <a:ext cx="0" cy="0"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:extLst>
+              <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+                <a14:hiddenFill>
+                  <a:solidFill>
+                    <a:srgbClr val="FFFFFF" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="65"/>
+                  </a:solidFill>
+                </a14:hiddenFill>
+              </a:ext>
+              <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
+                <a14:hiddenLine w="9525">
+                  <a:solidFill>
+                    <a:srgbClr val="000000" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="64"/>
+                  </a:solidFill>
+                  <a:miter lim="800000"/>
+                  <a:headEnd/>
+                  <a:tailEnd/>
+                </a14:hiddenLine>
+              </a:ext>
+            </a:extLst>
+          </xdr:spPr>
+        </xdr:sp>
+        <xdr:clientData/>
+      </xdr:oneCellAnchor>
+    </mc:Choice>
+    <mc:Fallback/>
+  </mc:AlternateContent>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+      <xdr:oneCellAnchor>
+        <xdr:from>
+          <xdr:col>10</xdr:col>
+          <xdr:colOff>175260</xdr:colOff>
+          <xdr:row>8</xdr:row>
+          <xdr:rowOff>152400</xdr:rowOff>
+        </xdr:from>
+        <xdr:ext cx="388620" cy="281940"/>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="1072" name="Check Box 48" hidden="1">
+              <a:extLst>
+                <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
+                  <a14:compatExt spid="_x0000_s1072"/>
+                </a:ext>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A1240B46-D60F-4F63-BB6C-ED9F9F484B38}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -2160,10 +3752,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="B1:O5"/>
+  <dimension ref="B1:O10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K4" sqref="K4"/>
+      <selection activeCell="B8" sqref="B8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2270,6 +3862,109 @@
       <c r="I5" s="4"/>
       <c r="J5" s="4"/>
       <c r="K5" s="4"/>
+    </row>
+    <row r="6" spans="2:15" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="7" spans="2:15" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B7" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C7" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="D7" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="E7" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="F7" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="G7" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="H7" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="I7" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="J7" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="K7" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="L7" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="M7" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="N7" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="O7" s="2" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="8" spans="2:15" ht="27.6" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B8" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="C8" s="4"/>
+      <c r="D8" s="4"/>
+      <c r="E8" s="4"/>
+      <c r="F8" s="4"/>
+      <c r="G8" s="4"/>
+      <c r="H8" s="4"/>
+      <c r="I8" s="4"/>
+      <c r="J8" s="4"/>
+      <c r="K8" s="4"/>
+      <c r="L8" s="4"/>
+      <c r="M8" s="4"/>
+      <c r="N8" s="4"/>
+      <c r="O8" s="4"/>
+    </row>
+    <row r="9" spans="2:15" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="C9" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="D9" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="E9" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="F9" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="G9" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="H9" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="I9" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="J9" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="K9" s="2" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="10" spans="2:15" x14ac:dyDescent="0.3">
+      <c r="C10" s="4"/>
+      <c r="D10" s="4"/>
+      <c r="E10" s="4"/>
+      <c r="F10" s="4"/>
+      <c r="G10" s="4"/>
+      <c r="H10" s="4"/>
+      <c r="I10" s="4"/>
+      <c r="J10" s="4"/>
+      <c r="K10" s="4"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -2806,6 +4501,534 @@
             </control>
           </mc:Choice>
         </mc:AlternateContent>
+        <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+          <mc:Choice Requires="x14">
+            <control shapeId="1049" r:id="rId27" name="Check Box 25">
+              <controlPr defaultSize="0" autoFill="0" autoLine="0" autoPict="0">
+                <anchor moveWithCells="1">
+                  <from>
+                    <xdr:col>2</xdr:col>
+                    <xdr:colOff>175260</xdr:colOff>
+                    <xdr:row>6</xdr:row>
+                    <xdr:rowOff>152400</xdr:rowOff>
+                  </from>
+                  <to>
+                    <xdr:col>2</xdr:col>
+                    <xdr:colOff>563880</xdr:colOff>
+                    <xdr:row>7</xdr:row>
+                    <xdr:rowOff>228600</xdr:rowOff>
+                  </to>
+                </anchor>
+              </controlPr>
+            </control>
+          </mc:Choice>
+        </mc:AlternateContent>
+        <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+          <mc:Choice Requires="x14">
+            <control shapeId="1050" r:id="rId28" name="Check Box 26">
+              <controlPr defaultSize="0" autoFill="0" autoLine="0" autoPict="0">
+                <anchor moveWithCells="1">
+                  <from>
+                    <xdr:col>3</xdr:col>
+                    <xdr:colOff>175260</xdr:colOff>
+                    <xdr:row>6</xdr:row>
+                    <xdr:rowOff>152400</xdr:rowOff>
+                  </from>
+                  <to>
+                    <xdr:col>3</xdr:col>
+                    <xdr:colOff>563880</xdr:colOff>
+                    <xdr:row>7</xdr:row>
+                    <xdr:rowOff>228600</xdr:rowOff>
+                  </to>
+                </anchor>
+              </controlPr>
+            </control>
+          </mc:Choice>
+        </mc:AlternateContent>
+        <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+          <mc:Choice Requires="x14">
+            <control shapeId="1051" r:id="rId29" name="Check Box 27">
+              <controlPr defaultSize="0" autoFill="0" autoLine="0" autoPict="0">
+                <anchor moveWithCells="1">
+                  <from>
+                    <xdr:col>4</xdr:col>
+                    <xdr:colOff>175260</xdr:colOff>
+                    <xdr:row>6</xdr:row>
+                    <xdr:rowOff>152400</xdr:rowOff>
+                  </from>
+                  <to>
+                    <xdr:col>4</xdr:col>
+                    <xdr:colOff>563880</xdr:colOff>
+                    <xdr:row>7</xdr:row>
+                    <xdr:rowOff>228600</xdr:rowOff>
+                  </to>
+                </anchor>
+              </controlPr>
+            </control>
+          </mc:Choice>
+        </mc:AlternateContent>
+        <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+          <mc:Choice Requires="x14">
+            <control shapeId="1052" r:id="rId30" name="Check Box 28">
+              <controlPr defaultSize="0" autoFill="0" autoLine="0" autoPict="0">
+                <anchor moveWithCells="1">
+                  <from>
+                    <xdr:col>5</xdr:col>
+                    <xdr:colOff>175260</xdr:colOff>
+                    <xdr:row>6</xdr:row>
+                    <xdr:rowOff>152400</xdr:rowOff>
+                  </from>
+                  <to>
+                    <xdr:col>5</xdr:col>
+                    <xdr:colOff>563880</xdr:colOff>
+                    <xdr:row>7</xdr:row>
+                    <xdr:rowOff>228600</xdr:rowOff>
+                  </to>
+                </anchor>
+              </controlPr>
+            </control>
+          </mc:Choice>
+        </mc:AlternateContent>
+        <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+          <mc:Choice Requires="x14">
+            <control shapeId="1053" r:id="rId31" name="Check Box 29">
+              <controlPr defaultSize="0" autoFill="0" autoLine="0" autoPict="0">
+                <anchor moveWithCells="1">
+                  <from>
+                    <xdr:col>6</xdr:col>
+                    <xdr:colOff>175260</xdr:colOff>
+                    <xdr:row>6</xdr:row>
+                    <xdr:rowOff>152400</xdr:rowOff>
+                  </from>
+                  <to>
+                    <xdr:col>6</xdr:col>
+                    <xdr:colOff>563880</xdr:colOff>
+                    <xdr:row>7</xdr:row>
+                    <xdr:rowOff>228600</xdr:rowOff>
+                  </to>
+                </anchor>
+              </controlPr>
+            </control>
+          </mc:Choice>
+        </mc:AlternateContent>
+        <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+          <mc:Choice Requires="x14">
+            <control shapeId="1054" r:id="rId32" name="Check Box 30">
+              <controlPr defaultSize="0" autoFill="0" autoLine="0" autoPict="0">
+                <anchor moveWithCells="1">
+                  <from>
+                    <xdr:col>7</xdr:col>
+                    <xdr:colOff>175260</xdr:colOff>
+                    <xdr:row>6</xdr:row>
+                    <xdr:rowOff>152400</xdr:rowOff>
+                  </from>
+                  <to>
+                    <xdr:col>7</xdr:col>
+                    <xdr:colOff>563880</xdr:colOff>
+                    <xdr:row>7</xdr:row>
+                    <xdr:rowOff>228600</xdr:rowOff>
+                  </to>
+                </anchor>
+              </controlPr>
+            </control>
+          </mc:Choice>
+        </mc:AlternateContent>
+        <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+          <mc:Choice Requires="x14">
+            <control shapeId="1055" r:id="rId33" name="Check Box 31">
+              <controlPr defaultSize="0" autoFill="0" autoLine="0" autoPict="0">
+                <anchor moveWithCells="1">
+                  <from>
+                    <xdr:col>8</xdr:col>
+                    <xdr:colOff>175260</xdr:colOff>
+                    <xdr:row>6</xdr:row>
+                    <xdr:rowOff>152400</xdr:rowOff>
+                  </from>
+                  <to>
+                    <xdr:col>8</xdr:col>
+                    <xdr:colOff>563880</xdr:colOff>
+                    <xdr:row>7</xdr:row>
+                    <xdr:rowOff>228600</xdr:rowOff>
+                  </to>
+                </anchor>
+              </controlPr>
+            </control>
+          </mc:Choice>
+        </mc:AlternateContent>
+        <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+          <mc:Choice Requires="x14">
+            <control shapeId="1056" r:id="rId34" name="Check Box 32">
+              <controlPr defaultSize="0" autoFill="0" autoLine="0" autoPict="0">
+                <anchor moveWithCells="1">
+                  <from>
+                    <xdr:col>9</xdr:col>
+                    <xdr:colOff>175260</xdr:colOff>
+                    <xdr:row>6</xdr:row>
+                    <xdr:rowOff>152400</xdr:rowOff>
+                  </from>
+                  <to>
+                    <xdr:col>9</xdr:col>
+                    <xdr:colOff>563880</xdr:colOff>
+                    <xdr:row>7</xdr:row>
+                    <xdr:rowOff>228600</xdr:rowOff>
+                  </to>
+                </anchor>
+              </controlPr>
+            </control>
+          </mc:Choice>
+        </mc:AlternateContent>
+        <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+          <mc:Choice Requires="x14">
+            <control shapeId="1057" r:id="rId35" name="Check Box 33">
+              <controlPr defaultSize="0" autoFill="0" autoLine="0" autoPict="0">
+                <anchor moveWithCells="1">
+                  <from>
+                    <xdr:col>10</xdr:col>
+                    <xdr:colOff>175260</xdr:colOff>
+                    <xdr:row>6</xdr:row>
+                    <xdr:rowOff>152400</xdr:rowOff>
+                  </from>
+                  <to>
+                    <xdr:col>10</xdr:col>
+                    <xdr:colOff>563880</xdr:colOff>
+                    <xdr:row>7</xdr:row>
+                    <xdr:rowOff>228600</xdr:rowOff>
+                  </to>
+                </anchor>
+              </controlPr>
+            </control>
+          </mc:Choice>
+        </mc:AlternateContent>
+        <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+          <mc:Choice Requires="x14">
+            <control shapeId="1058" r:id="rId36" name="Check Box 34">
+              <controlPr defaultSize="0" autoFill="0" autoLine="0" autoPict="0">
+                <anchor moveWithCells="1">
+                  <from>
+                    <xdr:col>11</xdr:col>
+                    <xdr:colOff>175260</xdr:colOff>
+                    <xdr:row>6</xdr:row>
+                    <xdr:rowOff>152400</xdr:rowOff>
+                  </from>
+                  <to>
+                    <xdr:col>11</xdr:col>
+                    <xdr:colOff>563880</xdr:colOff>
+                    <xdr:row>7</xdr:row>
+                    <xdr:rowOff>228600</xdr:rowOff>
+                  </to>
+                </anchor>
+              </controlPr>
+            </control>
+          </mc:Choice>
+        </mc:AlternateContent>
+        <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+          <mc:Choice Requires="x14">
+            <control shapeId="1059" r:id="rId37" name="Check Box 35">
+              <controlPr defaultSize="0" autoFill="0" autoLine="0" autoPict="0">
+                <anchor moveWithCells="1">
+                  <from>
+                    <xdr:col>12</xdr:col>
+                    <xdr:colOff>175260</xdr:colOff>
+                    <xdr:row>6</xdr:row>
+                    <xdr:rowOff>152400</xdr:rowOff>
+                  </from>
+                  <to>
+                    <xdr:col>12</xdr:col>
+                    <xdr:colOff>563880</xdr:colOff>
+                    <xdr:row>7</xdr:row>
+                    <xdr:rowOff>228600</xdr:rowOff>
+                  </to>
+                </anchor>
+              </controlPr>
+            </control>
+          </mc:Choice>
+        </mc:AlternateContent>
+        <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+          <mc:Choice Requires="x14">
+            <control shapeId="1060" r:id="rId38" name="Check Box 36">
+              <controlPr defaultSize="0" autoFill="0" autoLine="0" autoPict="0">
+                <anchor moveWithCells="1">
+                  <from>
+                    <xdr:col>13</xdr:col>
+                    <xdr:colOff>175260</xdr:colOff>
+                    <xdr:row>6</xdr:row>
+                    <xdr:rowOff>152400</xdr:rowOff>
+                  </from>
+                  <to>
+                    <xdr:col>13</xdr:col>
+                    <xdr:colOff>563880</xdr:colOff>
+                    <xdr:row>7</xdr:row>
+                    <xdr:rowOff>228600</xdr:rowOff>
+                  </to>
+                </anchor>
+              </controlPr>
+            </control>
+          </mc:Choice>
+        </mc:AlternateContent>
+        <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+          <mc:Choice Requires="x14">
+            <control shapeId="1061" r:id="rId39" name="Check Box 37">
+              <controlPr defaultSize="0" autoFill="0" autoLine="0" autoPict="0">
+                <anchor moveWithCells="1">
+                  <from>
+                    <xdr:col>12</xdr:col>
+                    <xdr:colOff>175260</xdr:colOff>
+                    <xdr:row>6</xdr:row>
+                    <xdr:rowOff>152400</xdr:rowOff>
+                  </from>
+                  <to>
+                    <xdr:col>12</xdr:col>
+                    <xdr:colOff>563880</xdr:colOff>
+                    <xdr:row>7</xdr:row>
+                    <xdr:rowOff>228600</xdr:rowOff>
+                  </to>
+                </anchor>
+              </controlPr>
+            </control>
+          </mc:Choice>
+        </mc:AlternateContent>
+        <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+          <mc:Choice Requires="x14">
+            <control shapeId="1062" r:id="rId40" name="Check Box 38">
+              <controlPr defaultSize="0" autoFill="0" autoLine="0" autoPict="0">
+                <anchor moveWithCells="1">
+                  <from>
+                    <xdr:col>13</xdr:col>
+                    <xdr:colOff>175260</xdr:colOff>
+                    <xdr:row>6</xdr:row>
+                    <xdr:rowOff>152400</xdr:rowOff>
+                  </from>
+                  <to>
+                    <xdr:col>13</xdr:col>
+                    <xdr:colOff>563880</xdr:colOff>
+                    <xdr:row>7</xdr:row>
+                    <xdr:rowOff>228600</xdr:rowOff>
+                  </to>
+                </anchor>
+              </controlPr>
+            </control>
+          </mc:Choice>
+        </mc:AlternateContent>
+        <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+          <mc:Choice Requires="x14">
+            <control shapeId="1063" r:id="rId41" name="Check Box 39">
+              <controlPr defaultSize="0" autoFill="0" autoLine="0" autoPict="0">
+                <anchor moveWithCells="1">
+                  <from>
+                    <xdr:col>14</xdr:col>
+                    <xdr:colOff>175260</xdr:colOff>
+                    <xdr:row>6</xdr:row>
+                    <xdr:rowOff>152400</xdr:rowOff>
+                  </from>
+                  <to>
+                    <xdr:col>14</xdr:col>
+                    <xdr:colOff>563880</xdr:colOff>
+                    <xdr:row>7</xdr:row>
+                    <xdr:rowOff>228600</xdr:rowOff>
+                  </to>
+                </anchor>
+              </controlPr>
+            </control>
+          </mc:Choice>
+        </mc:AlternateContent>
+        <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+          <mc:Choice Requires="x14">
+            <control shapeId="1064" r:id="rId42" name="Check Box 40">
+              <controlPr defaultSize="0" autoFill="0" autoLine="0" autoPict="0">
+                <anchor moveWithCells="1">
+                  <from>
+                    <xdr:col>2</xdr:col>
+                    <xdr:colOff>175260</xdr:colOff>
+                    <xdr:row>8</xdr:row>
+                    <xdr:rowOff>152400</xdr:rowOff>
+                  </from>
+                  <to>
+                    <xdr:col>2</xdr:col>
+                    <xdr:colOff>563880</xdr:colOff>
+                    <xdr:row>10</xdr:row>
+                    <xdr:rowOff>45720</xdr:rowOff>
+                  </to>
+                </anchor>
+              </controlPr>
+            </control>
+          </mc:Choice>
+        </mc:AlternateContent>
+        <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+          <mc:Choice Requires="x14">
+            <control shapeId="1065" r:id="rId43" name="Check Box 41">
+              <controlPr defaultSize="0" autoFill="0" autoLine="0" autoPict="0">
+                <anchor moveWithCells="1">
+                  <from>
+                    <xdr:col>3</xdr:col>
+                    <xdr:colOff>175260</xdr:colOff>
+                    <xdr:row>8</xdr:row>
+                    <xdr:rowOff>152400</xdr:rowOff>
+                  </from>
+                  <to>
+                    <xdr:col>3</xdr:col>
+                    <xdr:colOff>563880</xdr:colOff>
+                    <xdr:row>10</xdr:row>
+                    <xdr:rowOff>45720</xdr:rowOff>
+                  </to>
+                </anchor>
+              </controlPr>
+            </control>
+          </mc:Choice>
+        </mc:AlternateContent>
+        <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+          <mc:Choice Requires="x14">
+            <control shapeId="1066" r:id="rId44" name="Check Box 42">
+              <controlPr defaultSize="0" autoFill="0" autoLine="0" autoPict="0">
+                <anchor moveWithCells="1">
+                  <from>
+                    <xdr:col>4</xdr:col>
+                    <xdr:colOff>175260</xdr:colOff>
+                    <xdr:row>8</xdr:row>
+                    <xdr:rowOff>152400</xdr:rowOff>
+                  </from>
+                  <to>
+                    <xdr:col>4</xdr:col>
+                    <xdr:colOff>563880</xdr:colOff>
+                    <xdr:row>10</xdr:row>
+                    <xdr:rowOff>45720</xdr:rowOff>
+                  </to>
+                </anchor>
+              </controlPr>
+            </control>
+          </mc:Choice>
+        </mc:AlternateContent>
+        <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+          <mc:Choice Requires="x14">
+            <control shapeId="1067" r:id="rId45" name="Check Box 43">
+              <controlPr defaultSize="0" autoFill="0" autoLine="0" autoPict="0">
+                <anchor moveWithCells="1">
+                  <from>
+                    <xdr:col>5</xdr:col>
+                    <xdr:colOff>175260</xdr:colOff>
+                    <xdr:row>8</xdr:row>
+                    <xdr:rowOff>152400</xdr:rowOff>
+                  </from>
+                  <to>
+                    <xdr:col>5</xdr:col>
+                    <xdr:colOff>563880</xdr:colOff>
+                    <xdr:row>10</xdr:row>
+                    <xdr:rowOff>45720</xdr:rowOff>
+                  </to>
+                </anchor>
+              </controlPr>
+            </control>
+          </mc:Choice>
+        </mc:AlternateContent>
+        <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+          <mc:Choice Requires="x14">
+            <control shapeId="1068" r:id="rId46" name="Check Box 44">
+              <controlPr defaultSize="0" autoFill="0" autoLine="0" autoPict="0">
+                <anchor moveWithCells="1">
+                  <from>
+                    <xdr:col>6</xdr:col>
+                    <xdr:colOff>175260</xdr:colOff>
+                    <xdr:row>8</xdr:row>
+                    <xdr:rowOff>152400</xdr:rowOff>
+                  </from>
+                  <to>
+                    <xdr:col>6</xdr:col>
+                    <xdr:colOff>563880</xdr:colOff>
+                    <xdr:row>10</xdr:row>
+                    <xdr:rowOff>45720</xdr:rowOff>
+                  </to>
+                </anchor>
+              </controlPr>
+            </control>
+          </mc:Choice>
+        </mc:AlternateContent>
+        <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+          <mc:Choice Requires="x14">
+            <control shapeId="1069" r:id="rId47" name="Check Box 45">
+              <controlPr defaultSize="0" autoFill="0" autoLine="0" autoPict="0">
+                <anchor moveWithCells="1">
+                  <from>
+                    <xdr:col>7</xdr:col>
+                    <xdr:colOff>175260</xdr:colOff>
+                    <xdr:row>8</xdr:row>
+                    <xdr:rowOff>152400</xdr:rowOff>
+                  </from>
+                  <to>
+                    <xdr:col>7</xdr:col>
+                    <xdr:colOff>563880</xdr:colOff>
+                    <xdr:row>10</xdr:row>
+                    <xdr:rowOff>45720</xdr:rowOff>
+                  </to>
+                </anchor>
+              </controlPr>
+            </control>
+          </mc:Choice>
+        </mc:AlternateContent>
+        <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+          <mc:Choice Requires="x14">
+            <control shapeId="1070" r:id="rId48" name="Check Box 46">
+              <controlPr defaultSize="0" autoFill="0" autoLine="0" autoPict="0">
+                <anchor moveWithCells="1">
+                  <from>
+                    <xdr:col>8</xdr:col>
+                    <xdr:colOff>175260</xdr:colOff>
+                    <xdr:row>8</xdr:row>
+                    <xdr:rowOff>152400</xdr:rowOff>
+                  </from>
+                  <to>
+                    <xdr:col>8</xdr:col>
+                    <xdr:colOff>563880</xdr:colOff>
+                    <xdr:row>10</xdr:row>
+                    <xdr:rowOff>45720</xdr:rowOff>
+                  </to>
+                </anchor>
+              </controlPr>
+            </control>
+          </mc:Choice>
+        </mc:AlternateContent>
+        <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+          <mc:Choice Requires="x14">
+            <control shapeId="1071" r:id="rId49" name="Check Box 47">
+              <controlPr defaultSize="0" autoFill="0" autoLine="0" autoPict="0">
+                <anchor moveWithCells="1">
+                  <from>
+                    <xdr:col>9</xdr:col>
+                    <xdr:colOff>175260</xdr:colOff>
+                    <xdr:row>8</xdr:row>
+                    <xdr:rowOff>152400</xdr:rowOff>
+                  </from>
+                  <to>
+                    <xdr:col>9</xdr:col>
+                    <xdr:colOff>563880</xdr:colOff>
+                    <xdr:row>10</xdr:row>
+                    <xdr:rowOff>45720</xdr:rowOff>
+                  </to>
+                </anchor>
+              </controlPr>
+            </control>
+          </mc:Choice>
+        </mc:AlternateContent>
+        <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+          <mc:Choice Requires="x14">
+            <control shapeId="1072" r:id="rId50" name="Check Box 48">
+              <controlPr defaultSize="0" autoFill="0" autoLine="0" autoPict="0">
+                <anchor moveWithCells="1">
+                  <from>
+                    <xdr:col>10</xdr:col>
+                    <xdr:colOff>175260</xdr:colOff>
+                    <xdr:row>8</xdr:row>
+                    <xdr:rowOff>152400</xdr:rowOff>
+                  </from>
+                  <to>
+                    <xdr:col>10</xdr:col>
+                    <xdr:colOff>563880</xdr:colOff>
+                    <xdr:row>10</xdr:row>
+                    <xdr:rowOff>45720</xdr:rowOff>
+                  </to>
+                </anchor>
+              </controlPr>
+            </control>
+          </mc:Choice>
+        </mc:AlternateContent>
       </controls>
     </mc:Choice>
   </mc:AlternateContent>

--- a/matrix/reviewed/iphone/connected device/connected_device.xlsx
+++ b/matrix/reviewed/iphone/connected device/connected_device.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24326"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{311111E4-127E-473B-8197-0DE301FE0E69}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7A1737B3-B332-4DA0-9145-0982B1274CA5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -403,7 +403,7 @@
           <xdr:col>2</xdr:col>
           <xdr:colOff>563880</xdr:colOff>
           <xdr:row>3</xdr:row>
-          <xdr:rowOff>38100</xdr:rowOff>
+          <xdr:rowOff>7620</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -470,7 +470,7 @@
           <xdr:col>3</xdr:col>
           <xdr:colOff>563880</xdr:colOff>
           <xdr:row>3</xdr:row>
-          <xdr:rowOff>38100</xdr:rowOff>
+          <xdr:rowOff>7620</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -537,7 +537,7 @@
           <xdr:col>4</xdr:col>
           <xdr:colOff>563880</xdr:colOff>
           <xdr:row>3</xdr:row>
-          <xdr:rowOff>38100</xdr:rowOff>
+          <xdr:rowOff>7620</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -604,7 +604,7 @@
           <xdr:col>5</xdr:col>
           <xdr:colOff>563880</xdr:colOff>
           <xdr:row>3</xdr:row>
-          <xdr:rowOff>38100</xdr:rowOff>
+          <xdr:rowOff>7620</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -671,7 +671,7 @@
           <xdr:col>6</xdr:col>
           <xdr:colOff>563880</xdr:colOff>
           <xdr:row>3</xdr:row>
-          <xdr:rowOff>38100</xdr:rowOff>
+          <xdr:rowOff>7620</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -738,7 +738,7 @@
           <xdr:col>7</xdr:col>
           <xdr:colOff>563880</xdr:colOff>
           <xdr:row>3</xdr:row>
-          <xdr:rowOff>38100</xdr:rowOff>
+          <xdr:rowOff>7620</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -805,7 +805,7 @@
           <xdr:col>8</xdr:col>
           <xdr:colOff>563880</xdr:colOff>
           <xdr:row>3</xdr:row>
-          <xdr:rowOff>38100</xdr:rowOff>
+          <xdr:rowOff>7620</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -872,7 +872,7 @@
           <xdr:col>9</xdr:col>
           <xdr:colOff>563880</xdr:colOff>
           <xdr:row>3</xdr:row>
-          <xdr:rowOff>38100</xdr:rowOff>
+          <xdr:rowOff>7620</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -939,7 +939,7 @@
           <xdr:col>10</xdr:col>
           <xdr:colOff>563880</xdr:colOff>
           <xdr:row>3</xdr:row>
-          <xdr:rowOff>38100</xdr:rowOff>
+          <xdr:rowOff>7620</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -1006,7 +1006,7 @@
           <xdr:col>11</xdr:col>
           <xdr:colOff>563880</xdr:colOff>
           <xdr:row>3</xdr:row>
-          <xdr:rowOff>38100</xdr:rowOff>
+          <xdr:rowOff>7620</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -1073,7 +1073,7 @@
           <xdr:col>12</xdr:col>
           <xdr:colOff>563880</xdr:colOff>
           <xdr:row>3</xdr:row>
-          <xdr:rowOff>38100</xdr:rowOff>
+          <xdr:rowOff>7620</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -1140,7 +1140,7 @@
           <xdr:col>13</xdr:col>
           <xdr:colOff>563880</xdr:colOff>
           <xdr:row>3</xdr:row>
-          <xdr:rowOff>38100</xdr:rowOff>
+          <xdr:rowOff>7620</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -1207,7 +1207,7 @@
           <xdr:col>12</xdr:col>
           <xdr:colOff>563880</xdr:colOff>
           <xdr:row>3</xdr:row>
-          <xdr:rowOff>38100</xdr:rowOff>
+          <xdr:rowOff>7620</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -1274,7 +1274,7 @@
           <xdr:col>13</xdr:col>
           <xdr:colOff>563880</xdr:colOff>
           <xdr:row>3</xdr:row>
-          <xdr:rowOff>38100</xdr:rowOff>
+          <xdr:rowOff>7620</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -1341,7 +1341,7 @@
           <xdr:col>14</xdr:col>
           <xdr:colOff>563880</xdr:colOff>
           <xdr:row>3</xdr:row>
-          <xdr:rowOff>38100</xdr:rowOff>
+          <xdr:rowOff>7620</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -2000,14 +2000,19 @@
   </mc:AlternateContent>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
-      <xdr:oneCellAnchor>
+      <xdr:twoCellAnchor editAs="oneCell">
         <xdr:from>
           <xdr:col>2</xdr:col>
           <xdr:colOff>175260</xdr:colOff>
           <xdr:row>6</xdr:row>
           <xdr:rowOff>152400</xdr:rowOff>
         </xdr:from>
-        <xdr:ext cx="388620" cy="281940"/>
+        <xdr:to>
+          <xdr:col>2</xdr:col>
+          <xdr:colOff>563880</xdr:colOff>
+          <xdr:row>8</xdr:row>
+          <xdr:rowOff>7620</xdr:rowOff>
+        </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="1049" name="Check Box 25" hidden="1">
@@ -2016,7 +2021,7 @@
                   <a14:compatExt spid="_x0000_s1049"/>
                 </a:ext>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{197E21F5-4767-47DF-A613-5C419EA6A52C}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000019040000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -2056,20 +2061,25 @@
           </xdr:spPr>
         </xdr:sp>
         <xdr:clientData/>
-      </xdr:oneCellAnchor>
+      </xdr:twoCellAnchor>
     </mc:Choice>
     <mc:Fallback/>
   </mc:AlternateContent>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
-      <xdr:oneCellAnchor>
+      <xdr:twoCellAnchor editAs="oneCell">
         <xdr:from>
           <xdr:col>3</xdr:col>
           <xdr:colOff>175260</xdr:colOff>
           <xdr:row>6</xdr:row>
           <xdr:rowOff>152400</xdr:rowOff>
         </xdr:from>
-        <xdr:ext cx="388620" cy="281940"/>
+        <xdr:to>
+          <xdr:col>3</xdr:col>
+          <xdr:colOff>563880</xdr:colOff>
+          <xdr:row>8</xdr:row>
+          <xdr:rowOff>7620</xdr:rowOff>
+        </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="1050" name="Check Box 26" hidden="1">
@@ -2078,7 +2088,7 @@
                   <a14:compatExt spid="_x0000_s1050"/>
                 </a:ext>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A733020B-51BB-4B9E-B2FE-BEFA7DA85A0C}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00001A040000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -2118,20 +2128,25 @@
           </xdr:spPr>
         </xdr:sp>
         <xdr:clientData/>
-      </xdr:oneCellAnchor>
+      </xdr:twoCellAnchor>
     </mc:Choice>
     <mc:Fallback/>
   </mc:AlternateContent>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
-      <xdr:oneCellAnchor>
+      <xdr:twoCellAnchor editAs="oneCell">
         <xdr:from>
           <xdr:col>4</xdr:col>
           <xdr:colOff>175260</xdr:colOff>
           <xdr:row>6</xdr:row>
           <xdr:rowOff>152400</xdr:rowOff>
         </xdr:from>
-        <xdr:ext cx="388620" cy="281940"/>
+        <xdr:to>
+          <xdr:col>4</xdr:col>
+          <xdr:colOff>563880</xdr:colOff>
+          <xdr:row>8</xdr:row>
+          <xdr:rowOff>7620</xdr:rowOff>
+        </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="1051" name="Check Box 27" hidden="1">
@@ -2140,7 +2155,7 @@
                   <a14:compatExt spid="_x0000_s1051"/>
                 </a:ext>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3D2F4218-638B-40E9-AA2C-53D0E20A85CC}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00001B040000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -2180,20 +2195,25 @@
           </xdr:spPr>
         </xdr:sp>
         <xdr:clientData/>
-      </xdr:oneCellAnchor>
+      </xdr:twoCellAnchor>
     </mc:Choice>
     <mc:Fallback/>
   </mc:AlternateContent>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
-      <xdr:oneCellAnchor>
+      <xdr:twoCellAnchor editAs="oneCell">
         <xdr:from>
           <xdr:col>5</xdr:col>
           <xdr:colOff>175260</xdr:colOff>
           <xdr:row>6</xdr:row>
           <xdr:rowOff>152400</xdr:rowOff>
         </xdr:from>
-        <xdr:ext cx="388620" cy="281940"/>
+        <xdr:to>
+          <xdr:col>5</xdr:col>
+          <xdr:colOff>563880</xdr:colOff>
+          <xdr:row>8</xdr:row>
+          <xdr:rowOff>7620</xdr:rowOff>
+        </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="1052" name="Check Box 28" hidden="1">
@@ -2202,7 +2222,7 @@
                   <a14:compatExt spid="_x0000_s1052"/>
                 </a:ext>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D2509CDF-28A0-4AF3-B09B-F8BB1164AA98}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00001C040000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -2242,20 +2262,25 @@
           </xdr:spPr>
         </xdr:sp>
         <xdr:clientData/>
-      </xdr:oneCellAnchor>
+      </xdr:twoCellAnchor>
     </mc:Choice>
     <mc:Fallback/>
   </mc:AlternateContent>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
-      <xdr:oneCellAnchor>
+      <xdr:twoCellAnchor editAs="oneCell">
         <xdr:from>
           <xdr:col>6</xdr:col>
           <xdr:colOff>175260</xdr:colOff>
           <xdr:row>6</xdr:row>
           <xdr:rowOff>152400</xdr:rowOff>
         </xdr:from>
-        <xdr:ext cx="388620" cy="281940"/>
+        <xdr:to>
+          <xdr:col>6</xdr:col>
+          <xdr:colOff>563880</xdr:colOff>
+          <xdr:row>8</xdr:row>
+          <xdr:rowOff>7620</xdr:rowOff>
+        </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="1053" name="Check Box 29" hidden="1">
@@ -2264,7 +2289,7 @@
                   <a14:compatExt spid="_x0000_s1053"/>
                 </a:ext>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EB3142C2-14A8-4A96-8052-78E40627FF55}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00001D040000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -2304,20 +2329,25 @@
           </xdr:spPr>
         </xdr:sp>
         <xdr:clientData/>
-      </xdr:oneCellAnchor>
+      </xdr:twoCellAnchor>
     </mc:Choice>
     <mc:Fallback/>
   </mc:AlternateContent>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
-      <xdr:oneCellAnchor>
+      <xdr:twoCellAnchor editAs="oneCell">
         <xdr:from>
           <xdr:col>7</xdr:col>
           <xdr:colOff>175260</xdr:colOff>
           <xdr:row>6</xdr:row>
           <xdr:rowOff>152400</xdr:rowOff>
         </xdr:from>
-        <xdr:ext cx="388620" cy="281940"/>
+        <xdr:to>
+          <xdr:col>7</xdr:col>
+          <xdr:colOff>563880</xdr:colOff>
+          <xdr:row>8</xdr:row>
+          <xdr:rowOff>7620</xdr:rowOff>
+        </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="1054" name="Check Box 30" hidden="1">
@@ -2326,7 +2356,7 @@
                   <a14:compatExt spid="_x0000_s1054"/>
                 </a:ext>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{85914549-79F3-4E0F-86AD-9D4D4203F3B9}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00001E040000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -2366,20 +2396,25 @@
           </xdr:spPr>
         </xdr:sp>
         <xdr:clientData/>
-      </xdr:oneCellAnchor>
+      </xdr:twoCellAnchor>
     </mc:Choice>
     <mc:Fallback/>
   </mc:AlternateContent>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
-      <xdr:oneCellAnchor>
+      <xdr:twoCellAnchor editAs="oneCell">
         <xdr:from>
           <xdr:col>8</xdr:col>
           <xdr:colOff>175260</xdr:colOff>
           <xdr:row>6</xdr:row>
           <xdr:rowOff>152400</xdr:rowOff>
         </xdr:from>
-        <xdr:ext cx="388620" cy="281940"/>
+        <xdr:to>
+          <xdr:col>8</xdr:col>
+          <xdr:colOff>563880</xdr:colOff>
+          <xdr:row>8</xdr:row>
+          <xdr:rowOff>7620</xdr:rowOff>
+        </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="1055" name="Check Box 31" hidden="1">
@@ -2388,7 +2423,7 @@
                   <a14:compatExt spid="_x0000_s1055"/>
                 </a:ext>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5E9E48FA-7D74-4BA5-BA64-24F735F40696}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00001F040000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -2428,20 +2463,25 @@
           </xdr:spPr>
         </xdr:sp>
         <xdr:clientData/>
-      </xdr:oneCellAnchor>
+      </xdr:twoCellAnchor>
     </mc:Choice>
     <mc:Fallback/>
   </mc:AlternateContent>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
-      <xdr:oneCellAnchor>
+      <xdr:twoCellAnchor editAs="oneCell">
         <xdr:from>
           <xdr:col>9</xdr:col>
           <xdr:colOff>175260</xdr:colOff>
           <xdr:row>6</xdr:row>
           <xdr:rowOff>152400</xdr:rowOff>
         </xdr:from>
-        <xdr:ext cx="388620" cy="281940"/>
+        <xdr:to>
+          <xdr:col>9</xdr:col>
+          <xdr:colOff>563880</xdr:colOff>
+          <xdr:row>8</xdr:row>
+          <xdr:rowOff>7620</xdr:rowOff>
+        </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="1056" name="Check Box 32" hidden="1">
@@ -2450,7 +2490,7 @@
                   <a14:compatExt spid="_x0000_s1056"/>
                 </a:ext>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0B8399DB-F7D5-41BA-BC5B-02668CA0CD86}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000020040000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -2490,20 +2530,25 @@
           </xdr:spPr>
         </xdr:sp>
         <xdr:clientData/>
-      </xdr:oneCellAnchor>
+      </xdr:twoCellAnchor>
     </mc:Choice>
     <mc:Fallback/>
   </mc:AlternateContent>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
-      <xdr:oneCellAnchor>
+      <xdr:twoCellAnchor editAs="oneCell">
         <xdr:from>
           <xdr:col>10</xdr:col>
           <xdr:colOff>175260</xdr:colOff>
           <xdr:row>6</xdr:row>
           <xdr:rowOff>152400</xdr:rowOff>
         </xdr:from>
-        <xdr:ext cx="388620" cy="281940"/>
+        <xdr:to>
+          <xdr:col>10</xdr:col>
+          <xdr:colOff>563880</xdr:colOff>
+          <xdr:row>8</xdr:row>
+          <xdr:rowOff>7620</xdr:rowOff>
+        </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="1057" name="Check Box 33" hidden="1">
@@ -2512,7 +2557,7 @@
                   <a14:compatExt spid="_x0000_s1057"/>
                 </a:ext>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3EBCDDF2-3AF8-440E-BFD6-574E4F6B2A95}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000021040000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -2552,20 +2597,25 @@
           </xdr:spPr>
         </xdr:sp>
         <xdr:clientData/>
-      </xdr:oneCellAnchor>
+      </xdr:twoCellAnchor>
     </mc:Choice>
     <mc:Fallback/>
   </mc:AlternateContent>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
-      <xdr:oneCellAnchor>
+      <xdr:twoCellAnchor editAs="oneCell">
         <xdr:from>
           <xdr:col>11</xdr:col>
           <xdr:colOff>175260</xdr:colOff>
           <xdr:row>6</xdr:row>
           <xdr:rowOff>152400</xdr:rowOff>
         </xdr:from>
-        <xdr:ext cx="388620" cy="281940"/>
+        <xdr:to>
+          <xdr:col>11</xdr:col>
+          <xdr:colOff>563880</xdr:colOff>
+          <xdr:row>8</xdr:row>
+          <xdr:rowOff>7620</xdr:rowOff>
+        </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="1058" name="Check Box 34" hidden="1">
@@ -2574,7 +2624,7 @@
                   <a14:compatExt spid="_x0000_s1058"/>
                 </a:ext>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{2F3861F2-8746-4E42-80ED-FEF5A9077671}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000022040000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -2614,20 +2664,25 @@
           </xdr:spPr>
         </xdr:sp>
         <xdr:clientData/>
-      </xdr:oneCellAnchor>
+      </xdr:twoCellAnchor>
     </mc:Choice>
     <mc:Fallback/>
   </mc:AlternateContent>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
-      <xdr:oneCellAnchor>
+      <xdr:twoCellAnchor editAs="oneCell">
         <xdr:from>
           <xdr:col>12</xdr:col>
           <xdr:colOff>175260</xdr:colOff>
           <xdr:row>6</xdr:row>
           <xdr:rowOff>152400</xdr:rowOff>
         </xdr:from>
-        <xdr:ext cx="388620" cy="281940"/>
+        <xdr:to>
+          <xdr:col>12</xdr:col>
+          <xdr:colOff>563880</xdr:colOff>
+          <xdr:row>8</xdr:row>
+          <xdr:rowOff>7620</xdr:rowOff>
+        </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="1059" name="Check Box 35" hidden="1">
@@ -2636,7 +2691,7 @@
                   <a14:compatExt spid="_x0000_s1059"/>
                 </a:ext>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{4AB996C8-BA66-4D0D-A337-AE26E7C34F85}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000023040000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -2676,20 +2731,25 @@
           </xdr:spPr>
         </xdr:sp>
         <xdr:clientData/>
-      </xdr:oneCellAnchor>
+      </xdr:twoCellAnchor>
     </mc:Choice>
     <mc:Fallback/>
   </mc:AlternateContent>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
-      <xdr:oneCellAnchor>
+      <xdr:twoCellAnchor editAs="oneCell">
         <xdr:from>
           <xdr:col>13</xdr:col>
           <xdr:colOff>175260</xdr:colOff>
           <xdr:row>6</xdr:row>
           <xdr:rowOff>152400</xdr:rowOff>
         </xdr:from>
-        <xdr:ext cx="388620" cy="281940"/>
+        <xdr:to>
+          <xdr:col>13</xdr:col>
+          <xdr:colOff>563880</xdr:colOff>
+          <xdr:row>8</xdr:row>
+          <xdr:rowOff>7620</xdr:rowOff>
+        </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="1060" name="Check Box 36" hidden="1">
@@ -2698,7 +2758,7 @@
                   <a14:compatExt spid="_x0000_s1060"/>
                 </a:ext>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{95DE100D-6C5C-4177-9487-2446546F57E2}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000024040000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -2738,20 +2798,25 @@
           </xdr:spPr>
         </xdr:sp>
         <xdr:clientData/>
-      </xdr:oneCellAnchor>
+      </xdr:twoCellAnchor>
     </mc:Choice>
     <mc:Fallback/>
   </mc:AlternateContent>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
-      <xdr:oneCellAnchor>
+      <xdr:twoCellAnchor editAs="oneCell">
         <xdr:from>
           <xdr:col>12</xdr:col>
           <xdr:colOff>175260</xdr:colOff>
           <xdr:row>6</xdr:row>
           <xdr:rowOff>152400</xdr:rowOff>
         </xdr:from>
-        <xdr:ext cx="388620" cy="281940"/>
+        <xdr:to>
+          <xdr:col>12</xdr:col>
+          <xdr:colOff>563880</xdr:colOff>
+          <xdr:row>8</xdr:row>
+          <xdr:rowOff>7620</xdr:rowOff>
+        </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="1061" name="Check Box 37" hidden="1">
@@ -2760,7 +2825,7 @@
                   <a14:compatExt spid="_x0000_s1061"/>
                 </a:ext>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{524BBDE7-E050-496F-9B3C-ABB4B8E0EDDD}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000025040000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -2800,20 +2865,25 @@
           </xdr:spPr>
         </xdr:sp>
         <xdr:clientData/>
-      </xdr:oneCellAnchor>
+      </xdr:twoCellAnchor>
     </mc:Choice>
     <mc:Fallback/>
   </mc:AlternateContent>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
-      <xdr:oneCellAnchor>
+      <xdr:twoCellAnchor editAs="oneCell">
         <xdr:from>
           <xdr:col>13</xdr:col>
           <xdr:colOff>175260</xdr:colOff>
           <xdr:row>6</xdr:row>
           <xdr:rowOff>152400</xdr:rowOff>
         </xdr:from>
-        <xdr:ext cx="388620" cy="281940"/>
+        <xdr:to>
+          <xdr:col>13</xdr:col>
+          <xdr:colOff>563880</xdr:colOff>
+          <xdr:row>8</xdr:row>
+          <xdr:rowOff>7620</xdr:rowOff>
+        </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="1062" name="Check Box 38" hidden="1">
@@ -2822,7 +2892,7 @@
                   <a14:compatExt spid="_x0000_s1062"/>
                 </a:ext>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E33479B8-01F7-4DFD-B10F-A6C1BC4417B8}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000026040000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -2862,20 +2932,25 @@
           </xdr:spPr>
         </xdr:sp>
         <xdr:clientData/>
-      </xdr:oneCellAnchor>
+      </xdr:twoCellAnchor>
     </mc:Choice>
     <mc:Fallback/>
   </mc:AlternateContent>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
-      <xdr:oneCellAnchor>
+      <xdr:twoCellAnchor editAs="oneCell">
         <xdr:from>
           <xdr:col>14</xdr:col>
           <xdr:colOff>175260</xdr:colOff>
           <xdr:row>6</xdr:row>
           <xdr:rowOff>152400</xdr:rowOff>
         </xdr:from>
-        <xdr:ext cx="388620" cy="281940"/>
+        <xdr:to>
+          <xdr:col>14</xdr:col>
+          <xdr:colOff>563880</xdr:colOff>
+          <xdr:row>8</xdr:row>
+          <xdr:rowOff>7620</xdr:rowOff>
+        </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="1063" name="Check Box 39" hidden="1">
@@ -2884,7 +2959,7 @@
                   <a14:compatExt spid="_x0000_s1063"/>
                 </a:ext>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{AB240147-81BA-442E-8923-0C38AA72503A}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000027040000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -2924,20 +2999,25 @@
           </xdr:spPr>
         </xdr:sp>
         <xdr:clientData/>
-      </xdr:oneCellAnchor>
+      </xdr:twoCellAnchor>
     </mc:Choice>
     <mc:Fallback/>
   </mc:AlternateContent>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
-      <xdr:oneCellAnchor>
+      <xdr:twoCellAnchor editAs="oneCell">
         <xdr:from>
           <xdr:col>2</xdr:col>
           <xdr:colOff>175260</xdr:colOff>
           <xdr:row>8</xdr:row>
           <xdr:rowOff>152400</xdr:rowOff>
         </xdr:from>
-        <xdr:ext cx="388620" cy="281940"/>
+        <xdr:to>
+          <xdr:col>2</xdr:col>
+          <xdr:colOff>563880</xdr:colOff>
+          <xdr:row>10</xdr:row>
+          <xdr:rowOff>45720</xdr:rowOff>
+        </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="1064" name="Check Box 40" hidden="1">
@@ -2946,7 +3026,7 @@
                   <a14:compatExt spid="_x0000_s1064"/>
                 </a:ext>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D3AAD4FA-DA17-4D07-AF42-862DB6100151}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000028040000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -2986,20 +3066,25 @@
           </xdr:spPr>
         </xdr:sp>
         <xdr:clientData/>
-      </xdr:oneCellAnchor>
+      </xdr:twoCellAnchor>
     </mc:Choice>
     <mc:Fallback/>
   </mc:AlternateContent>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
-      <xdr:oneCellAnchor>
+      <xdr:twoCellAnchor editAs="oneCell">
         <xdr:from>
           <xdr:col>3</xdr:col>
           <xdr:colOff>175260</xdr:colOff>
           <xdr:row>8</xdr:row>
           <xdr:rowOff>152400</xdr:rowOff>
         </xdr:from>
-        <xdr:ext cx="388620" cy="281940"/>
+        <xdr:to>
+          <xdr:col>3</xdr:col>
+          <xdr:colOff>563880</xdr:colOff>
+          <xdr:row>10</xdr:row>
+          <xdr:rowOff>45720</xdr:rowOff>
+        </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="1065" name="Check Box 41" hidden="1">
@@ -3008,7 +3093,7 @@
                   <a14:compatExt spid="_x0000_s1065"/>
                 </a:ext>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A514E949-45A3-465C-813A-274F342FB539}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000029040000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -3048,20 +3133,25 @@
           </xdr:spPr>
         </xdr:sp>
         <xdr:clientData/>
-      </xdr:oneCellAnchor>
+      </xdr:twoCellAnchor>
     </mc:Choice>
     <mc:Fallback/>
   </mc:AlternateContent>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
-      <xdr:oneCellAnchor>
+      <xdr:twoCellAnchor editAs="oneCell">
         <xdr:from>
           <xdr:col>4</xdr:col>
           <xdr:colOff>175260</xdr:colOff>
           <xdr:row>8</xdr:row>
           <xdr:rowOff>152400</xdr:rowOff>
         </xdr:from>
-        <xdr:ext cx="388620" cy="281940"/>
+        <xdr:to>
+          <xdr:col>4</xdr:col>
+          <xdr:colOff>563880</xdr:colOff>
+          <xdr:row>10</xdr:row>
+          <xdr:rowOff>45720</xdr:rowOff>
+        </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="1066" name="Check Box 42" hidden="1">
@@ -3070,7 +3160,7 @@
                   <a14:compatExt spid="_x0000_s1066"/>
                 </a:ext>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E63264A5-B9D0-41AB-A148-A21DF7628543}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00002A040000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -3110,20 +3200,25 @@
           </xdr:spPr>
         </xdr:sp>
         <xdr:clientData/>
-      </xdr:oneCellAnchor>
+      </xdr:twoCellAnchor>
     </mc:Choice>
     <mc:Fallback/>
   </mc:AlternateContent>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
-      <xdr:oneCellAnchor>
+      <xdr:twoCellAnchor editAs="oneCell">
         <xdr:from>
           <xdr:col>5</xdr:col>
           <xdr:colOff>175260</xdr:colOff>
           <xdr:row>8</xdr:row>
           <xdr:rowOff>152400</xdr:rowOff>
         </xdr:from>
-        <xdr:ext cx="388620" cy="281940"/>
+        <xdr:to>
+          <xdr:col>5</xdr:col>
+          <xdr:colOff>563880</xdr:colOff>
+          <xdr:row>10</xdr:row>
+          <xdr:rowOff>45720</xdr:rowOff>
+        </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="1067" name="Check Box 43" hidden="1">
@@ -3132,7 +3227,7 @@
                   <a14:compatExt spid="_x0000_s1067"/>
                 </a:ext>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{BCF593ED-2164-4E92-ACD4-EBF05F24AE31}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00002B040000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -3172,20 +3267,25 @@
           </xdr:spPr>
         </xdr:sp>
         <xdr:clientData/>
-      </xdr:oneCellAnchor>
+      </xdr:twoCellAnchor>
     </mc:Choice>
     <mc:Fallback/>
   </mc:AlternateContent>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
-      <xdr:oneCellAnchor>
+      <xdr:twoCellAnchor editAs="oneCell">
         <xdr:from>
           <xdr:col>6</xdr:col>
           <xdr:colOff>175260</xdr:colOff>
           <xdr:row>8</xdr:row>
           <xdr:rowOff>152400</xdr:rowOff>
         </xdr:from>
-        <xdr:ext cx="388620" cy="281940"/>
+        <xdr:to>
+          <xdr:col>6</xdr:col>
+          <xdr:colOff>563880</xdr:colOff>
+          <xdr:row>10</xdr:row>
+          <xdr:rowOff>45720</xdr:rowOff>
+        </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="1068" name="Check Box 44" hidden="1">
@@ -3194,7 +3294,7 @@
                   <a14:compatExt spid="_x0000_s1068"/>
                 </a:ext>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{19941993-55C3-4F4B-A720-8B0A43932681}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00002C040000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -3234,20 +3334,25 @@
           </xdr:spPr>
         </xdr:sp>
         <xdr:clientData/>
-      </xdr:oneCellAnchor>
+      </xdr:twoCellAnchor>
     </mc:Choice>
     <mc:Fallback/>
   </mc:AlternateContent>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
-      <xdr:oneCellAnchor>
+      <xdr:twoCellAnchor editAs="oneCell">
         <xdr:from>
           <xdr:col>7</xdr:col>
           <xdr:colOff>175260</xdr:colOff>
           <xdr:row>8</xdr:row>
           <xdr:rowOff>152400</xdr:rowOff>
         </xdr:from>
-        <xdr:ext cx="388620" cy="281940"/>
+        <xdr:to>
+          <xdr:col>7</xdr:col>
+          <xdr:colOff>563880</xdr:colOff>
+          <xdr:row>10</xdr:row>
+          <xdr:rowOff>45720</xdr:rowOff>
+        </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="1069" name="Check Box 45" hidden="1">
@@ -3256,7 +3361,7 @@
                   <a14:compatExt spid="_x0000_s1069"/>
                 </a:ext>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{55C650EB-50BD-474D-BA2F-DD5C34FA1A6E}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00002D040000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -3296,20 +3401,25 @@
           </xdr:spPr>
         </xdr:sp>
         <xdr:clientData/>
-      </xdr:oneCellAnchor>
+      </xdr:twoCellAnchor>
     </mc:Choice>
     <mc:Fallback/>
   </mc:AlternateContent>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
-      <xdr:oneCellAnchor>
+      <xdr:twoCellAnchor editAs="oneCell">
         <xdr:from>
           <xdr:col>8</xdr:col>
           <xdr:colOff>175260</xdr:colOff>
           <xdr:row>8</xdr:row>
           <xdr:rowOff>152400</xdr:rowOff>
         </xdr:from>
-        <xdr:ext cx="388620" cy="281940"/>
+        <xdr:to>
+          <xdr:col>8</xdr:col>
+          <xdr:colOff>563880</xdr:colOff>
+          <xdr:row>10</xdr:row>
+          <xdr:rowOff>45720</xdr:rowOff>
+        </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="1070" name="Check Box 46" hidden="1">
@@ -3318,7 +3428,7 @@
                   <a14:compatExt spid="_x0000_s1070"/>
                 </a:ext>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{76C8B937-6048-445F-8CA3-6ABCBDC4C82D}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00002E040000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -3358,20 +3468,25 @@
           </xdr:spPr>
         </xdr:sp>
         <xdr:clientData/>
-      </xdr:oneCellAnchor>
+      </xdr:twoCellAnchor>
     </mc:Choice>
     <mc:Fallback/>
   </mc:AlternateContent>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
-      <xdr:oneCellAnchor>
+      <xdr:twoCellAnchor editAs="oneCell">
         <xdr:from>
           <xdr:col>9</xdr:col>
           <xdr:colOff>175260</xdr:colOff>
           <xdr:row>8</xdr:row>
           <xdr:rowOff>152400</xdr:rowOff>
         </xdr:from>
-        <xdr:ext cx="388620" cy="281940"/>
+        <xdr:to>
+          <xdr:col>9</xdr:col>
+          <xdr:colOff>563880</xdr:colOff>
+          <xdr:row>10</xdr:row>
+          <xdr:rowOff>45720</xdr:rowOff>
+        </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="1071" name="Check Box 47" hidden="1">
@@ -3380,7 +3495,7 @@
                   <a14:compatExt spid="_x0000_s1071"/>
                 </a:ext>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{DEBE4041-0EF1-4A5C-B4FD-7C1343C0B017}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00002F040000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -3420,20 +3535,25 @@
           </xdr:spPr>
         </xdr:sp>
         <xdr:clientData/>
-      </xdr:oneCellAnchor>
+      </xdr:twoCellAnchor>
     </mc:Choice>
     <mc:Fallback/>
   </mc:AlternateContent>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
-      <xdr:oneCellAnchor>
+      <xdr:twoCellAnchor editAs="oneCell">
         <xdr:from>
           <xdr:col>10</xdr:col>
           <xdr:colOff>175260</xdr:colOff>
           <xdr:row>8</xdr:row>
           <xdr:rowOff>152400</xdr:rowOff>
         </xdr:from>
-        <xdr:ext cx="388620" cy="281940"/>
+        <xdr:to>
+          <xdr:col>10</xdr:col>
+          <xdr:colOff>563880</xdr:colOff>
+          <xdr:row>10</xdr:row>
+          <xdr:rowOff>45720</xdr:rowOff>
+        </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="1072" name="Check Box 48" hidden="1">
@@ -3442,7 +3562,7 @@
                   <a14:compatExt spid="_x0000_s1072"/>
                 </a:ext>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A1240B46-D60F-4F63-BB6C-ED9F9F484B38}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000030040000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -3482,7 +3602,7 @@
           </xdr:spPr>
         </xdr:sp>
         <xdr:clientData/>
-      </xdr:oneCellAnchor>
+      </xdr:twoCellAnchor>
     </mc:Choice>
     <mc:Fallback/>
   </mc:AlternateContent>
@@ -3755,7 +3875,7 @@
   <dimension ref="B1:O10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B8" sqref="B8"/>
+      <selection activeCell="F15" sqref="F15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -3805,7 +3925,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="3" spans="2:15" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="3" spans="2:15" ht="17.399999999999999" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B3" s="3">
         <v>45386</v>
       </c>
@@ -3908,7 +4028,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="8" spans="2:15" ht="27.6" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="8" spans="2:15" ht="17.399999999999999" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B8" s="3" t="s">
         <v>23</v>
       </c>
@@ -3988,7 +4108,7 @@
                     <xdr:col>2</xdr:col>
                     <xdr:colOff>563880</xdr:colOff>
                     <xdr:row>3</xdr:row>
-                    <xdr:rowOff>38100</xdr:rowOff>
+                    <xdr:rowOff>7620</xdr:rowOff>
                   </to>
                 </anchor>
               </controlPr>
@@ -4010,7 +4130,7 @@
                     <xdr:col>3</xdr:col>
                     <xdr:colOff>563880</xdr:colOff>
                     <xdr:row>3</xdr:row>
-                    <xdr:rowOff>38100</xdr:rowOff>
+                    <xdr:rowOff>7620</xdr:rowOff>
                   </to>
                 </anchor>
               </controlPr>
@@ -4032,7 +4152,7 @@
                     <xdr:col>4</xdr:col>
                     <xdr:colOff>563880</xdr:colOff>
                     <xdr:row>3</xdr:row>
-                    <xdr:rowOff>38100</xdr:rowOff>
+                    <xdr:rowOff>7620</xdr:rowOff>
                   </to>
                 </anchor>
               </controlPr>
@@ -4054,7 +4174,7 @@
                     <xdr:col>5</xdr:col>
                     <xdr:colOff>563880</xdr:colOff>
                     <xdr:row>3</xdr:row>
-                    <xdr:rowOff>38100</xdr:rowOff>
+                    <xdr:rowOff>7620</xdr:rowOff>
                   </to>
                 </anchor>
               </controlPr>
@@ -4076,7 +4196,7 @@
                     <xdr:col>6</xdr:col>
                     <xdr:colOff>563880</xdr:colOff>
                     <xdr:row>3</xdr:row>
-                    <xdr:rowOff>38100</xdr:rowOff>
+                    <xdr:rowOff>7620</xdr:rowOff>
                   </to>
                 </anchor>
               </controlPr>
@@ -4098,7 +4218,7 @@
                     <xdr:col>7</xdr:col>
                     <xdr:colOff>563880</xdr:colOff>
                     <xdr:row>3</xdr:row>
-                    <xdr:rowOff>38100</xdr:rowOff>
+                    <xdr:rowOff>7620</xdr:rowOff>
                   </to>
                 </anchor>
               </controlPr>
@@ -4120,7 +4240,7 @@
                     <xdr:col>8</xdr:col>
                     <xdr:colOff>563880</xdr:colOff>
                     <xdr:row>3</xdr:row>
-                    <xdr:rowOff>38100</xdr:rowOff>
+                    <xdr:rowOff>7620</xdr:rowOff>
                   </to>
                 </anchor>
               </controlPr>
@@ -4142,7 +4262,7 @@
                     <xdr:col>9</xdr:col>
                     <xdr:colOff>563880</xdr:colOff>
                     <xdr:row>3</xdr:row>
-                    <xdr:rowOff>38100</xdr:rowOff>
+                    <xdr:rowOff>7620</xdr:rowOff>
                   </to>
                 </anchor>
               </controlPr>
@@ -4164,7 +4284,7 @@
                     <xdr:col>10</xdr:col>
                     <xdr:colOff>563880</xdr:colOff>
                     <xdr:row>3</xdr:row>
-                    <xdr:rowOff>38100</xdr:rowOff>
+                    <xdr:rowOff>7620</xdr:rowOff>
                   </to>
                 </anchor>
               </controlPr>
@@ -4186,7 +4306,7 @@
                     <xdr:col>11</xdr:col>
                     <xdr:colOff>563880</xdr:colOff>
                     <xdr:row>3</xdr:row>
-                    <xdr:rowOff>38100</xdr:rowOff>
+                    <xdr:rowOff>7620</xdr:rowOff>
                   </to>
                 </anchor>
               </controlPr>
@@ -4208,7 +4328,7 @@
                     <xdr:col>12</xdr:col>
                     <xdr:colOff>563880</xdr:colOff>
                     <xdr:row>3</xdr:row>
-                    <xdr:rowOff>38100</xdr:rowOff>
+                    <xdr:rowOff>7620</xdr:rowOff>
                   </to>
                 </anchor>
               </controlPr>
@@ -4230,7 +4350,7 @@
                     <xdr:col>13</xdr:col>
                     <xdr:colOff>563880</xdr:colOff>
                     <xdr:row>3</xdr:row>
-                    <xdr:rowOff>38100</xdr:rowOff>
+                    <xdr:rowOff>7620</xdr:rowOff>
                   </to>
                 </anchor>
               </controlPr>
@@ -4252,7 +4372,7 @@
                     <xdr:col>12</xdr:col>
                     <xdr:colOff>563880</xdr:colOff>
                     <xdr:row>3</xdr:row>
-                    <xdr:rowOff>38100</xdr:rowOff>
+                    <xdr:rowOff>7620</xdr:rowOff>
                   </to>
                 </anchor>
               </controlPr>
@@ -4274,7 +4394,7 @@
                     <xdr:col>13</xdr:col>
                     <xdr:colOff>563880</xdr:colOff>
                     <xdr:row>3</xdr:row>
-                    <xdr:rowOff>38100</xdr:rowOff>
+                    <xdr:rowOff>7620</xdr:rowOff>
                   </to>
                 </anchor>
               </controlPr>
@@ -4296,7 +4416,7 @@
                     <xdr:col>14</xdr:col>
                     <xdr:colOff>563880</xdr:colOff>
                     <xdr:row>3</xdr:row>
-                    <xdr:rowOff>38100</xdr:rowOff>
+                    <xdr:rowOff>7620</xdr:rowOff>
                   </to>
                 </anchor>
               </controlPr>
@@ -4515,8 +4635,8 @@
                   <to>
                     <xdr:col>2</xdr:col>
                     <xdr:colOff>563880</xdr:colOff>
-                    <xdr:row>7</xdr:row>
-                    <xdr:rowOff>228600</xdr:rowOff>
+                    <xdr:row>8</xdr:row>
+                    <xdr:rowOff>7620</xdr:rowOff>
                   </to>
                 </anchor>
               </controlPr>
@@ -4537,8 +4657,8 @@
                   <to>
                     <xdr:col>3</xdr:col>
                     <xdr:colOff>563880</xdr:colOff>
-                    <xdr:row>7</xdr:row>
-                    <xdr:rowOff>228600</xdr:rowOff>
+                    <xdr:row>8</xdr:row>
+                    <xdr:rowOff>7620</xdr:rowOff>
                   </to>
                 </anchor>
               </controlPr>
@@ -4559,8 +4679,8 @@
                   <to>
                     <xdr:col>4</xdr:col>
                     <xdr:colOff>563880</xdr:colOff>
-                    <xdr:row>7</xdr:row>
-                    <xdr:rowOff>228600</xdr:rowOff>
+                    <xdr:row>8</xdr:row>
+                    <xdr:rowOff>7620</xdr:rowOff>
                   </to>
                 </anchor>
               </controlPr>
@@ -4581,8 +4701,8 @@
                   <to>
                     <xdr:col>5</xdr:col>
                     <xdr:colOff>563880</xdr:colOff>
-                    <xdr:row>7</xdr:row>
-                    <xdr:rowOff>228600</xdr:rowOff>
+                    <xdr:row>8</xdr:row>
+                    <xdr:rowOff>7620</xdr:rowOff>
                   </to>
                 </anchor>
               </controlPr>
@@ -4603,8 +4723,8 @@
                   <to>
                     <xdr:col>6</xdr:col>
                     <xdr:colOff>563880</xdr:colOff>
-                    <xdr:row>7</xdr:row>
-                    <xdr:rowOff>228600</xdr:rowOff>
+                    <xdr:row>8</xdr:row>
+                    <xdr:rowOff>7620</xdr:rowOff>
                   </to>
                 </anchor>
               </controlPr>
@@ -4625,8 +4745,8 @@
                   <to>
                     <xdr:col>7</xdr:col>
                     <xdr:colOff>563880</xdr:colOff>
-                    <xdr:row>7</xdr:row>
-                    <xdr:rowOff>228600</xdr:rowOff>
+                    <xdr:row>8</xdr:row>
+                    <xdr:rowOff>7620</xdr:rowOff>
                   </to>
                 </anchor>
               </controlPr>
@@ -4647,8 +4767,8 @@
                   <to>
                     <xdr:col>8</xdr:col>
                     <xdr:colOff>563880</xdr:colOff>
-                    <xdr:row>7</xdr:row>
-                    <xdr:rowOff>228600</xdr:rowOff>
+                    <xdr:row>8</xdr:row>
+                    <xdr:rowOff>7620</xdr:rowOff>
                   </to>
                 </anchor>
               </controlPr>
@@ -4669,8 +4789,8 @@
                   <to>
                     <xdr:col>9</xdr:col>
                     <xdr:colOff>563880</xdr:colOff>
-                    <xdr:row>7</xdr:row>
-                    <xdr:rowOff>228600</xdr:rowOff>
+                    <xdr:row>8</xdr:row>
+                    <xdr:rowOff>7620</xdr:rowOff>
                   </to>
                 </anchor>
               </controlPr>
@@ -4691,8 +4811,8 @@
                   <to>
                     <xdr:col>10</xdr:col>
                     <xdr:colOff>563880</xdr:colOff>
-                    <xdr:row>7</xdr:row>
-                    <xdr:rowOff>228600</xdr:rowOff>
+                    <xdr:row>8</xdr:row>
+                    <xdr:rowOff>7620</xdr:rowOff>
                   </to>
                 </anchor>
               </controlPr>
@@ -4713,8 +4833,8 @@
                   <to>
                     <xdr:col>11</xdr:col>
                     <xdr:colOff>563880</xdr:colOff>
-                    <xdr:row>7</xdr:row>
-                    <xdr:rowOff>228600</xdr:rowOff>
+                    <xdr:row>8</xdr:row>
+                    <xdr:rowOff>7620</xdr:rowOff>
                   </to>
                 </anchor>
               </controlPr>
@@ -4735,8 +4855,8 @@
                   <to>
                     <xdr:col>12</xdr:col>
                     <xdr:colOff>563880</xdr:colOff>
-                    <xdr:row>7</xdr:row>
-                    <xdr:rowOff>228600</xdr:rowOff>
+                    <xdr:row>8</xdr:row>
+                    <xdr:rowOff>7620</xdr:rowOff>
                   </to>
                 </anchor>
               </controlPr>
@@ -4757,8 +4877,8 @@
                   <to>
                     <xdr:col>13</xdr:col>
                     <xdr:colOff>563880</xdr:colOff>
-                    <xdr:row>7</xdr:row>
-                    <xdr:rowOff>228600</xdr:rowOff>
+                    <xdr:row>8</xdr:row>
+                    <xdr:rowOff>7620</xdr:rowOff>
                   </to>
                 </anchor>
               </controlPr>
@@ -4779,8 +4899,8 @@
                   <to>
                     <xdr:col>12</xdr:col>
                     <xdr:colOff>563880</xdr:colOff>
-                    <xdr:row>7</xdr:row>
-                    <xdr:rowOff>228600</xdr:rowOff>
+                    <xdr:row>8</xdr:row>
+                    <xdr:rowOff>7620</xdr:rowOff>
                   </to>
                 </anchor>
               </controlPr>
@@ -4801,8 +4921,8 @@
                   <to>
                     <xdr:col>13</xdr:col>
                     <xdr:colOff>563880</xdr:colOff>
-                    <xdr:row>7</xdr:row>
-                    <xdr:rowOff>228600</xdr:rowOff>
+                    <xdr:row>8</xdr:row>
+                    <xdr:rowOff>7620</xdr:rowOff>
                   </to>
                 </anchor>
               </controlPr>
@@ -4823,8 +4943,8 @@
                   <to>
                     <xdr:col>14</xdr:col>
                     <xdr:colOff>563880</xdr:colOff>
-                    <xdr:row>7</xdr:row>
-                    <xdr:rowOff>228600</xdr:rowOff>
+                    <xdr:row>8</xdr:row>
+                    <xdr:rowOff>7620</xdr:rowOff>
                   </to>
                 </anchor>
               </controlPr>
